--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32400451647075</v>
+        <v>21.32400451647072</v>
       </c>
       <c r="C2">
-        <v>14.987480154581</v>
+        <v>14.9874801545811</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.10794398417726</v>
+        <v>30.10794398417723</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.33698650423993</v>
+        <v>34.33698650423976</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.91277263639525</v>
+        <v>18.91277263639527</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76382782783552</v>
+        <v>19.7638278278356</v>
       </c>
       <c r="C3">
-        <v>13.92882421378579</v>
+        <v>13.92882421378577</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.79842624878811</v>
+        <v>27.79842624878819</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.39483875272215</v>
+        <v>32.39483875272237</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.57168691233693</v>
+        <v>17.57168691233699</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76269764685996</v>
+        <v>18.76269764685988</v>
       </c>
       <c r="C4">
-        <v>13.25182261578681</v>
+        <v>13.25182261578651</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.32908623844136</v>
+        <v>26.32908623844134</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.19540426612095</v>
+        <v>31.19540426612102</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.71213576977597</v>
+        <v>16.71213576977583</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>18.3435174835515</v>
       </c>
       <c r="C5">
-        <v>12.96889233543169</v>
+        <v>12.9688923354319</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.71663331625204</v>
+        <v>25.71663331625199</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>30.70486914415925</v>
+        <v>30.7048691441592</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27322610344981</v>
+        <v>18.27322610344997</v>
       </c>
       <c r="C6">
-        <v>12.92147940258714</v>
+        <v>12.92147940258707</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.61408816365358</v>
+        <v>25.61408816365363</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>30.62331271915101</v>
+        <v>30.62331271915105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.29218057007281</v>
+        <v>16.29218057007288</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.7570902743536</v>
+        <v>18.75709027435351</v>
       </c>
       <c r="C7">
-        <v>13.24803577087722</v>
+        <v>13.24803577087731</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.32088286799604</v>
+        <v>26.32088286799603</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>31.18879574985842</v>
+        <v>31.18879574985838</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.7947909269837</v>
+        <v>20.79479092698365</v>
       </c>
       <c r="C8">
-        <v>14.62788655140528</v>
+        <v>14.62788655140513</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.32176037284662</v>
+        <v>29.32176037284652</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.66872185118535</v>
+        <v>33.66872185118517</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.45766844623096</v>
+        <v>18.45766844623089</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.46648985622911</v>
+        <v>24.46648985622918</v>
       </c>
       <c r="C9">
-        <v>17.13370912019512</v>
+        <v>17.13370912019519</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.84132028335856</v>
+        <v>34.84132028335861</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.48629495772995</v>
+        <v>38.48629495773007</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.61946990938343</v>
+        <v>21.61946990938346</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.99673467593663</v>
+        <v>26.99673467593657</v>
       </c>
       <c r="C10">
-        <v>18.87664887801824</v>
+        <v>18.87664887801849</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.74498678115159</v>
+        <v>38.74498678115169</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
-        <v>42.02695094439046</v>
+        <v>42.02695094439031</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.80424708403361</v>
+        <v>23.80424708403358</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.12004588928487</v>
+        <v>28.12004588928486</v>
       </c>
       <c r="C11">
-        <v>19.6552152821287</v>
+        <v>19.65521528212886</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.50887128643998</v>
+        <v>40.50887128643984</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>43.64963508013138</v>
+        <v>43.64963508013145</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24.77583493806357</v>
+        <v>24.77583493806355</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.54234154643579</v>
+        <v>28.54234154643587</v>
       </c>
       <c r="C12">
-        <v>19.94873430402794</v>
+        <v>19.9487343040281</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.17739441113067</v>
+        <v>41.17739441113059</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>44.28703391122637</v>
+        <v>44.28703391122627</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.1413696396975</v>
+        <v>25.14136963969761</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.45151278582959</v>
+        <v>28.4515127858297</v>
       </c>
       <c r="C13">
-        <v>19.88556392351634</v>
+        <v>19.88556392351663</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.03334728753855</v>
+        <v>41.03334728753869</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>44.14146231357358</v>
+        <v>44.14146231357399</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.06273609696054</v>
+        <v>25.06273609696068</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.1548441466888</v>
+        <v>28.15484414668885</v>
       </c>
       <c r="C14">
-        <v>19.67938451188317</v>
+        <v>19.679384511883</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.56384423396937</v>
+        <v>40.56384423396918</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>43.70037542338683</v>
+        <v>43.7003754233867</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.97275567298391</v>
+        <v>27.97275567298378</v>
       </c>
       <c r="C15">
-        <v>19.55294880851282</v>
+        <v>19.55294880851275</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.27641347164454</v>
+        <v>40.2764134716444</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
-        <v>43.43517723708264</v>
+        <v>43.43517723708241</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.64837832493127</v>
+        <v>24.6483783249312</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.92283901258736</v>
+        <v>26.92283901258731</v>
       </c>
       <c r="C16">
-        <v>18.82553999345756</v>
+        <v>18.82553999345764</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.62965607077453</v>
+        <v>38.62965607077439</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.92125929972209</v>
+        <v>41.92125929972185</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.74036904562369</v>
+        <v>23.74036904562368</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.27223624563786</v>
+        <v>26.27223624563801</v>
       </c>
       <c r="C17">
-        <v>18.37611455357515</v>
+        <v>18.37611455357512</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.61783107138202</v>
+        <v>37.61783107138215</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.9964844305648</v>
+        <v>40.99648443056524</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.17815522816723</v>
+        <v>23.17815522816733</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89535413210947</v>
+        <v>25.89535413210948</v>
       </c>
       <c r="C18">
-        <v>18.1162166356768</v>
+        <v>18.11621663567673</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.03456924492439</v>
+        <v>37.03456924492434</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.46560043948855</v>
+        <v>40.46560043948816</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.85262934987971</v>
+        <v>22.85262934987972</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>25.76726484816121</v>
       </c>
       <c r="C19">
-        <v>18.02795909158455</v>
+        <v>18.02795909158442</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.8368049384339</v>
+        <v>36.83680493843401</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>40.28599111405682</v>
+        <v>40.28599111405693</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.74201967488915</v>
+        <v>22.74201967488913</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.34176469454587</v>
+        <v>26.34176469454584</v>
       </c>
       <c r="C20">
-        <v>18.42409670843364</v>
+        <v>18.42409670843354</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.72565995626666</v>
+        <v>37.72565995626672</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>41.09481352722516</v>
+        <v>41.09481352722547</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.23822157615997</v>
+        <v>23.23822157615999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24205817503402</v>
+        <v>28.24205817503396</v>
       </c>
       <c r="C21">
-        <v>19.73997298363994</v>
+        <v>19.73997298364003</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.70171172473576</v>
+        <v>40.70171172473589</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>43.82766739228229</v>
+        <v>43.82766739228241</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.88143158936827</v>
+        <v>24.88143158936824</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.46665672058398</v>
+        <v>29.46665672058411</v>
       </c>
       <c r="C22">
-        <v>20.59284885455249</v>
+        <v>20.59284885455257</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.65164348750225</v>
+        <v>42.65164348750238</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>45.77630621976</v>
+        <v>45.77630621975998</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.94199949525845</v>
+        <v>25.94199949525858</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.8142949294917</v>
+        <v>28.81429492949176</v>
       </c>
       <c r="C23">
-        <v>20.13800572097081</v>
+        <v>20.13800572097076</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.60955455600983</v>
+        <v>41.60955455600989</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>44.7237258083977</v>
+        <v>44.72372580839787</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.37685243309109</v>
+        <v>25.37685243309111</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.3103398002754</v>
+        <v>26.31033980027534</v>
       </c>
       <c r="C24">
-        <v>18.40240875616827</v>
+        <v>18.40240875616835</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.6769155104142</v>
+        <v>37.67691551041424</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>41.0503566108008</v>
+        <v>41.05035661080081</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.21107280855198</v>
+        <v>23.21107280855194</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50508366014563</v>
+        <v>23.50508366014569</v>
       </c>
       <c r="C25">
-        <v>16.47504141129779</v>
+        <v>16.47504141129761</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.38070968691733</v>
+        <v>33.38070968691727</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>37.18575954196759</v>
+        <v>37.1857595419676</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32400451647072</v>
+        <v>21.32400451647075</v>
       </c>
       <c r="C2">
-        <v>14.9874801545811</v>
+        <v>14.987480154581</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.10794398417723</v>
+        <v>30.10794398417726</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.33698650423976</v>
+        <v>34.33698650423993</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.91277263639527</v>
+        <v>18.91277263639525</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7638278278356</v>
+        <v>19.76382782783552</v>
       </c>
       <c r="C3">
-        <v>13.92882421378577</v>
+        <v>13.92882421378579</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.79842624878819</v>
+        <v>27.79842624878811</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.39483875272237</v>
+        <v>32.39483875272215</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.57168691233699</v>
+        <v>17.57168691233693</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76269764685988</v>
+        <v>18.76269764685996</v>
       </c>
       <c r="C4">
-        <v>13.25182261578651</v>
+        <v>13.25182261578681</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.32908623844134</v>
+        <v>26.32908623844136</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.19540426612102</v>
+        <v>31.19540426612095</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.71213576977583</v>
+        <v>16.71213576977597</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>18.3435174835515</v>
       </c>
       <c r="C5">
-        <v>12.9688923354319</v>
+        <v>12.96889233543169</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.71663331625199</v>
+        <v>25.71663331625204</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.7048691441592</v>
+        <v>30.70486914415925</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27322610344997</v>
+        <v>18.27322610344981</v>
       </c>
       <c r="C6">
-        <v>12.92147940258707</v>
+        <v>12.92147940258714</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.61408816365363</v>
+        <v>25.61408816365358</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.62331271915105</v>
+        <v>30.62331271915101</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.29218057007288</v>
+        <v>16.29218057007281</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.75709027435351</v>
+        <v>18.7570902743536</v>
       </c>
       <c r="C7">
-        <v>13.24803577087731</v>
+        <v>13.24803577087722</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.32088286799603</v>
+        <v>26.32088286799604</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.18879574985838</v>
+        <v>31.18879574985842</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79479092698365</v>
+        <v>20.7947909269837</v>
       </c>
       <c r="C8">
-        <v>14.62788655140513</v>
+        <v>14.62788655140528</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.32176037284652</v>
+        <v>29.32176037284662</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.66872185118517</v>
+        <v>33.66872185118535</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.45766844623089</v>
+        <v>18.45766844623096</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.46648985622918</v>
+        <v>24.46648985622911</v>
       </c>
       <c r="C9">
-        <v>17.13370912019519</v>
+        <v>17.13370912019512</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.84132028335861</v>
+        <v>34.84132028335856</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.48629495773007</v>
+        <v>38.48629495772995</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.61946990938346</v>
+        <v>21.61946990938343</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.99673467593657</v>
+        <v>26.99673467593663</v>
       </c>
       <c r="C10">
-        <v>18.87664887801849</v>
+        <v>18.87664887801824</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.74498678115169</v>
+        <v>38.74498678115159</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>42.02695094439031</v>
+        <v>42.02695094439046</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.80424708403358</v>
+        <v>23.80424708403361</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.12004588928486</v>
+        <v>28.12004588928487</v>
       </c>
       <c r="C11">
-        <v>19.65521528212886</v>
+        <v>19.6552152821287</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.50887128643984</v>
+        <v>40.50887128643998</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>43.64963508013145</v>
+        <v>43.64963508013138</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24.77583493806355</v>
+        <v>24.77583493806357</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.54234154643587</v>
+        <v>28.54234154643579</v>
       </c>
       <c r="C12">
-        <v>19.9487343040281</v>
+        <v>19.94873430402794</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.17739441113059</v>
+        <v>41.17739441113067</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>44.28703391122627</v>
+        <v>44.28703391122637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.14136963969761</v>
+        <v>25.1413696396975</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.4515127858297</v>
+        <v>28.45151278582959</v>
       </c>
       <c r="C13">
-        <v>19.88556392351663</v>
+        <v>19.88556392351634</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.03334728753869</v>
+        <v>41.03334728753855</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>44.14146231357399</v>
+        <v>44.14146231357358</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.06273609696068</v>
+        <v>25.06273609696054</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.15484414668885</v>
+        <v>28.1548441466888</v>
       </c>
       <c r="C14">
-        <v>19.679384511883</v>
+        <v>19.67938451188317</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.56384423396918</v>
+        <v>40.56384423396937</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>43.7003754233867</v>
+        <v>43.70037542338683</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.97275567298378</v>
+        <v>27.97275567298391</v>
       </c>
       <c r="C15">
-        <v>19.55294880851275</v>
+        <v>19.55294880851282</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.2764134716444</v>
+        <v>40.27641347164454</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>43.43517723708241</v>
+        <v>43.43517723708264</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.6483783249312</v>
+        <v>24.64837832493127</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.92283901258731</v>
+        <v>26.92283901258736</v>
       </c>
       <c r="C16">
-        <v>18.82553999345764</v>
+        <v>18.82553999345756</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.62965607077439</v>
+        <v>38.62965607077453</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.92125929972185</v>
+        <v>41.92125929972209</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.74036904562368</v>
+        <v>23.74036904562369</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.27223624563801</v>
+        <v>26.27223624563786</v>
       </c>
       <c r="C17">
-        <v>18.37611455357512</v>
+        <v>18.37611455357515</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.61783107138215</v>
+        <v>37.61783107138202</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.99648443056524</v>
+        <v>40.9964844305648</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.17815522816733</v>
+        <v>23.17815522816723</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89535413210948</v>
+        <v>25.89535413210947</v>
       </c>
       <c r="C18">
-        <v>18.11621663567673</v>
+        <v>18.1162166356768</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.03456924492434</v>
+        <v>37.03456924492439</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.46560043948816</v>
+        <v>40.46560043948855</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.85262934987972</v>
+        <v>22.85262934987971</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>25.76726484816121</v>
       </c>
       <c r="C19">
-        <v>18.02795909158442</v>
+        <v>18.02795909158455</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.83680493843401</v>
+        <v>36.8368049384339</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>40.28599111405693</v>
+        <v>40.28599111405682</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.74201967488913</v>
+        <v>22.74201967488915</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.34176469454584</v>
+        <v>26.34176469454587</v>
       </c>
       <c r="C20">
-        <v>18.42409670843354</v>
+        <v>18.42409670843364</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.72565995626672</v>
+        <v>37.72565995626666</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>41.09481352722547</v>
+        <v>41.09481352722516</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.23822157615999</v>
+        <v>23.23822157615997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24205817503396</v>
+        <v>28.24205817503402</v>
       </c>
       <c r="C21">
-        <v>19.73997298364003</v>
+        <v>19.73997298363994</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.70171172473589</v>
+        <v>40.70171172473576</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>43.82766739228241</v>
+        <v>43.82766739228229</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.88143158936824</v>
+        <v>24.88143158936827</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.46665672058411</v>
+        <v>29.46665672058398</v>
       </c>
       <c r="C22">
-        <v>20.59284885455257</v>
+        <v>20.59284885455249</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.65164348750238</v>
+        <v>42.65164348750225</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.77630621975998</v>
+        <v>45.77630621976</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.94199949525858</v>
+        <v>25.94199949525845</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.81429492949176</v>
+        <v>28.8142949294917</v>
       </c>
       <c r="C23">
-        <v>20.13800572097076</v>
+        <v>20.13800572097081</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.60955455600989</v>
+        <v>41.60955455600983</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>44.72372580839787</v>
+        <v>44.7237258083977</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.37685243309111</v>
+        <v>25.37685243309109</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.31033980027534</v>
+        <v>26.3103398002754</v>
       </c>
       <c r="C24">
-        <v>18.40240875616835</v>
+        <v>18.40240875616827</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.67691551041424</v>
+        <v>37.6769155104142</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>41.05035661080081</v>
+        <v>41.0503566108008</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.21107280855194</v>
+        <v>23.21107280855198</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50508366014569</v>
+        <v>23.50508366014563</v>
       </c>
       <c r="C25">
-        <v>16.47504141129761</v>
+        <v>16.47504141129779</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.38070968691727</v>
+        <v>33.38070968691733</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>37.1857595419676</v>
+        <v>37.18575954196759</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32400451647075</v>
+        <v>21.3223783889115</v>
       </c>
       <c r="C2">
-        <v>14.987480154581</v>
+        <v>14.98550091912738</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.10794398417726</v>
+        <v>30.10692126116856</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.33698650423993</v>
+        <v>33.54418202196958</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.33425369518183</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.91277263639525</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.91092802111249</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76382782783552</v>
+        <v>19.76267789067379</v>
       </c>
       <c r="C3">
-        <v>13.92882421378579</v>
+        <v>13.92737747515748</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.79842624878811</v>
+        <v>27.79774429461903</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.39483875272215</v>
+        <v>31.38140751652078</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.3935247425018</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.57168691233693</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.57034793210554</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76269764685996</v>
+        <v>18.7618207293993</v>
       </c>
       <c r="C4">
-        <v>13.25182261578681</v>
+        <v>13.2506928070766</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.32908623844136</v>
+        <v>26.32858600871696</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.19540426612095</v>
+        <v>30.03134201705554</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31.19512792433838</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.71213576977597</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.71109508327972</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.3435174835515</v>
+        <v>18.34274779221309</v>
       </c>
       <c r="C5">
-        <v>12.96889233543169</v>
+        <v>12.96789007314952</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.71663331625204</v>
+        <v>25.71620147595757</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.70486914415925</v>
+        <v>29.47553475927439</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>30.70505910146013</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.35247667407953</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.35155538083902</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27322610344981</v>
+        <v>18.27247399521159</v>
       </c>
       <c r="C6">
-        <v>12.92147940258714</v>
+        <v>12.92049824730172</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.61408816365358</v>
+        <v>25.61366736928076</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.62331271915101</v>
+        <v>29.38290330706477</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>30.6235827703945</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.29218057007281</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.29127899550575</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.7570902743536</v>
+        <v>18.75621481830323</v>
       </c>
       <c r="C7">
-        <v>13.24803577087722</v>
+        <v>13.24690768766272</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.32088286799604</v>
+        <v>26.32038358205362</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.18879574985842</v>
+        <v>30.02386904719877</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>31.18852551894163</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.70732365468011</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.70628458601793</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.7947909269837</v>
+        <v>20.79333356123552</v>
       </c>
       <c r="C8">
-        <v>14.62788655140528</v>
+        <v>14.6260935875684</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.32176037284662</v>
+        <v>29.32086169432507</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.66872185118535</v>
+        <v>32.80294158294197</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.66644468822555</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.45766844623096</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.45600127605016</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.46648985622911</v>
+        <v>24.46369025078762</v>
       </c>
       <c r="C9">
-        <v>17.13370912019512</v>
+        <v>17.13048417328677</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.84132028335856</v>
+        <v>34.83934624529512</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.48629495772995</v>
+        <v>38.09098180461225</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.48132319922517</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.61946990938343</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.61642630187331</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.99673467593663</v>
+        <v>26.99273914197049</v>
       </c>
       <c r="C10">
-        <v>18.87664887801824</v>
+        <v>18.87220860391516</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.74498678115159</v>
+        <v>38.74190141211524</v>
       </c>
       <c r="F10">
         <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>42.02695094439046</v>
+        <v>41.91281102688008</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>42.02062844470436</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.80424708403361</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.80001869807074</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.12004588928487</v>
+        <v>28.11543246891009</v>
       </c>
       <c r="C11">
-        <v>19.6552152821287</v>
+        <v>19.65016004474896</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.50887128643998</v>
+        <v>40.50516075072025</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>43.64963508013138</v>
+        <v>43.65087422144865</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.65087422145015</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24.77583493806357</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.7710029713411</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.54234154643579</v>
+        <v>28.53748016005907</v>
       </c>
       <c r="C12">
-        <v>19.94873430402794</v>
+        <v>19.94343414091484</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.17739441113067</v>
+        <v>41.17342364244199</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>44.28703391122637</v>
+        <v>44.31053083934036</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>44.31053083934039</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.1413696396975</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.13629664880077</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.45151278582959</v>
+        <v>28.44670549123666</v>
       </c>
       <c r="C13">
-        <v>19.88556392351634</v>
+        <v>19.88031710635103</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.03334728753855</v>
+        <v>41.02943373675473</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>44.14146231357358</v>
+        <v>44.1683657346876</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>44.16836573497979</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.06273609696054</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.05771563093105</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.1548441466888</v>
+        <v>28.15021062959545</v>
       </c>
       <c r="C14">
-        <v>19.67938451188317</v>
+        <v>19.67430938737384</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.56384423396937</v>
+        <v>40.56011280446621</v>
       </c>
       <c r="F14">
         <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>43.70037542338683</v>
+        <v>43.70510407611434</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.70510407611435</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>24.80595010007512</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.80109857575445</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.97275567298391</v>
+        <v>27.96822665943912</v>
       </c>
       <c r="C15">
-        <v>19.55294880851282</v>
+        <v>19.54797717139087</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.27641347164454</v>
+        <v>40.27279030867517</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>43.43517723708264</v>
+        <v>43.42159130287754</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>43.42840655642353</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.64837832493127</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.64362854792864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.92283901258736</v>
+        <v>26.91888210906708</v>
       </c>
       <c r="C16">
-        <v>18.82553999345756</v>
+        <v>18.82113841366965</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.62965607077453</v>
+        <v>38.62660866471843</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.92125929972209</v>
+        <v>41.79933764168885</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.91497207195038</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.74036904562369</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.73617855598497</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.27223624563786</v>
+        <v>26.26860932066021</v>
       </c>
       <c r="C17">
-        <v>18.37611455357515</v>
+        <v>18.37204484413033</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.61783107138202</v>
+        <v>37.61510244469775</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.9964844305648</v>
+        <v>40.80498171601075</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.99051723659755</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.17815522816723</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.17428933113462</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89535413210947</v>
+        <v>25.89191030316359</v>
       </c>
       <c r="C18">
-        <v>18.1162166356768</v>
+        <v>18.11233219627625</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.03456924492439</v>
+        <v>37.03201319724951</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.46560043948855</v>
+        <v>40.23288960613816</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.45982712320173</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.85262934987971</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.84894430423724</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.76726484816121</v>
+        <v>25.76388194781338</v>
       </c>
       <c r="C19">
-        <v>18.02795909158455</v>
+        <v>18.02413649757073</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.8368049384339</v>
+        <v>36.83430562846814</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>40.28599111405682</v>
+        <v>40.03912030004484</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>40.28028522727151</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.74201967488915</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.73839493967001</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.34176469454587</v>
+        <v>26.33810335713127</v>
       </c>
       <c r="C20">
-        <v>18.42409670843364</v>
+        <v>18.41999227134106</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.72565995626666</v>
+        <v>37.72289854841964</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>41.09481352722516</v>
+        <v>40.91083978126501</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>41.08881127543854</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.23822157615997</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.23432175056019</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24205817503402</v>
+        <v>28.23737402727384</v>
       </c>
       <c r="C21">
-        <v>19.73997298363994</v>
+        <v>19.73484778587337</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.70171172473576</v>
+        <v>40.69792750189481</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>43.82766739228229</v>
+        <v>43.84112002046891</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.84112002055918</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.88143158936827</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.87653081139836</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.46665672058398</v>
+        <v>29.46122011447283</v>
       </c>
       <c r="C22">
-        <v>20.59284885455249</v>
+        <v>20.58698400736499</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.65164348750225</v>
+        <v>42.64704890361672</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.77630621976</v>
+        <v>45.77097778535306</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>45.76600434327327</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.94199949525845</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.93636959029915</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.8142949294917</v>
+        <v>28.80926904066391</v>
       </c>
       <c r="C23">
-        <v>20.13800572097081</v>
+        <v>20.13254359397159</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.60955455600983</v>
+        <v>41.60540824391706</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>44.7237258083977</v>
+        <v>44.73711622419381</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>44.73711622419379</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.37685243309109</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.37161987632693</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.3103398002754</v>
+        <v>26.30669404108382</v>
       </c>
       <c r="C24">
-        <v>18.40240875616827</v>
+        <v>18.39832003643844</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.6769155104142</v>
+        <v>37.67416895579356</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>41.0503566108008</v>
+        <v>40.86298278103055</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>41.04437017758421</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.21107280855198</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.20718833977811</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50508366014563</v>
+        <v>23.50267635827877</v>
       </c>
       <c r="C25">
-        <v>16.47504141129779</v>
+        <v>16.4722252126737</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.38070968691733</v>
+        <v>33.37907003103558</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>37.18575954196759</v>
+        <v>36.67497988965418</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.18139597240653</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.79061164399788</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.78796350939721</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.3223783889115</v>
+        <v>22.87963035532535</v>
       </c>
       <c r="C2">
-        <v>14.98550091912738</v>
+        <v>16.28481098789877</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.10692126116856</v>
+        <v>11.66007526443939</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>64.02514607514028</v>
       </c>
       <c r="G2">
-        <v>33.54418202196958</v>
+        <v>2.076648999980284</v>
       </c>
       <c r="H2">
-        <v>34.33425369518183</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.38656402603402</v>
       </c>
       <c r="K2">
-        <v>18.91092802111249</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>9.714341708389728</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76267789067379</v>
+        <v>21.15899498378904</v>
       </c>
       <c r="C3">
-        <v>13.92737747515748</v>
+        <v>15.0388215792328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.79774429461903</v>
+        <v>10.86495960707936</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>60.31930110447475</v>
       </c>
       <c r="G3">
-        <v>31.38140751652078</v>
+        <v>2.092544012175218</v>
       </c>
       <c r="H3">
-        <v>32.3935247425018</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.966644232773756</v>
       </c>
       <c r="K3">
-        <v>17.57034793210554</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>8.975148929989697</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7618207293993</v>
+        <v>20.06036741375156</v>
       </c>
       <c r="C4">
-        <v>13.2506928070766</v>
+        <v>14.24380933808543</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.32858600871696</v>
+        <v>10.36591755516007</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>57.99763765669697</v>
       </c>
       <c r="G4">
-        <v>30.03134201705554</v>
+        <v>2.102410957426361</v>
       </c>
       <c r="H4">
-        <v>31.19512792433838</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.707807586173301</v>
       </c>
       <c r="K4">
-        <v>16.71109508327972</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>8.505554827846444</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.34274779221309</v>
+        <v>19.60171848106907</v>
       </c>
       <c r="C5">
-        <v>12.96789007314952</v>
+        <v>13.91197222435786</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.71620147595757</v>
+        <v>10.15977694896892</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>57.03990467855805</v>
       </c>
       <c r="G5">
-        <v>29.47553475927439</v>
+        <v>2.106466050141014</v>
       </c>
       <c r="H5">
-        <v>30.70505910146013</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.602034368116968</v>
       </c>
       <c r="K5">
-        <v>16.35155538083902</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8.309983473900445</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27247399521159</v>
+        <v>19.52488985312651</v>
       </c>
       <c r="C6">
-        <v>12.92049824730172</v>
+        <v>13.85638724964988</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.61366736928076</v>
+        <v>10.12537936156743</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>56.88017591046906</v>
       </c>
       <c r="G6">
-        <v>29.38290330706477</v>
+        <v>2.107141658550913</v>
       </c>
       <c r="H6">
-        <v>30.6235827703945</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.584452156278193</v>
       </c>
       <c r="K6">
-        <v>16.29127899550575</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8.277247971485863</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.75621481830323</v>
+        <v>20.05422666368313</v>
       </c>
       <c r="C7">
-        <v>13.24690768766272</v>
+        <v>14.23936630616561</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.32038358205362</v>
+        <v>10.36314874006835</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>57.98476826664852</v>
       </c>
       <c r="G7">
-        <v>30.02386904719877</v>
+        <v>2.102465498259867</v>
       </c>
       <c r="H7">
-        <v>31.18852551894163</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.706382326822709</v>
       </c>
       <c r="K7">
-        <v>16.70628458601793</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8.502934636629506</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79333356123552</v>
+        <v>22.29487213270655</v>
       </c>
       <c r="C8">
-        <v>14.6260935875684</v>
+        <v>15.86120319341172</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.32086169432507</v>
+        <v>11.38811909172281</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>62.75688677974173</v>
       </c>
       <c r="G8">
-        <v>32.80294158294197</v>
+        <v>2.08211196110195</v>
       </c>
       <c r="H8">
-        <v>33.66644468822555</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.24195088045826</v>
       </c>
       <c r="K8">
-        <v>18.45600127605016</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9.462570261534436</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.46369025078762</v>
+        <v>26.37390441020044</v>
       </c>
       <c r="C9">
-        <v>17.13048417328677</v>
+        <v>18.82121349533788</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.83934624529512</v>
+        <v>13.38851539614797</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>71.76316206470294</v>
       </c>
       <c r="G9">
-        <v>38.09098180461225</v>
+        <v>2.04266965215633</v>
       </c>
       <c r="H9">
-        <v>38.48132319922517</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.28762342285093</v>
       </c>
       <c r="K9">
-        <v>21.61642630187331</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11.23285143691195</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.99273914197049</v>
+        <v>29.21278731617495</v>
       </c>
       <c r="C10">
-        <v>18.87220860391516</v>
+        <v>20.89082918043024</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.74190141211524</v>
+        <v>14.8635888188183</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>78.21077217517926</v>
       </c>
       <c r="G10">
-        <v>41.91281102688008</v>
+        <v>2.013340654136752</v>
       </c>
       <c r="H10">
-        <v>42.02062844470436</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.0605177337964</v>
       </c>
       <c r="K10">
-        <v>23.80001869807074</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.48745725670805</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.11543246891009</v>
+        <v>30.47990479489182</v>
       </c>
       <c r="C11">
-        <v>19.65016004474896</v>
+        <v>21.81792113130088</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.50516075072025</v>
+        <v>15.52479096333792</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>81.12492437008595</v>
       </c>
       <c r="G11">
-        <v>43.65087422144865</v>
+        <v>1.99973928956381</v>
       </c>
       <c r="H11">
-        <v>43.65087422145015</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.41574191390663</v>
       </c>
       <c r="K11">
-        <v>24.7710029713411</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.05447336072762</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.53748016005907</v>
+        <v>30.95729987532386</v>
       </c>
       <c r="C12">
-        <v>19.94343414091484</v>
+        <v>22.16781251381352</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.17342364244199</v>
+        <v>15.77436263272302</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>82.22785403173879</v>
       </c>
       <c r="G12">
-        <v>44.31053083934036</v>
+        <v>1.994532002151878</v>
       </c>
       <c r="H12">
-        <v>44.31053083934039</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.5510847757247</v>
       </c>
       <c r="K12">
-        <v>25.13629664880077</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.26931913275324</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.44670549123666</v>
+        <v>30.85457304870794</v>
       </c>
       <c r="C13">
-        <v>19.88031710635103</v>
+        <v>22.09249314888883</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.02943373675473</v>
+        <v>15.72063799455454</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>81.9903042642508</v>
       </c>
       <c r="G13">
-        <v>44.1683657346876</v>
+        <v>1.995656366344307</v>
       </c>
       <c r="H13">
-        <v>44.16836573497979</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.52189364852501</v>
       </c>
       <c r="K13">
-        <v>25.05771563093105</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.22303032606467</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.15021062959545</v>
+        <v>30.51922222306058</v>
       </c>
       <c r="C14">
-        <v>19.67430938737384</v>
+        <v>21.8467246881691</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.56011280446621</v>
+        <v>15.54533572205094</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>81.21566058947674</v>
       </c>
       <c r="G14">
-        <v>43.70510407611434</v>
+        <v>1.999312147438304</v>
       </c>
       <c r="H14">
-        <v>43.70510407611435</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.42685800624367</v>
       </c>
       <c r="K14">
-        <v>24.80109857575445</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.07214193123235</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.96822665943912</v>
+        <v>30.313528692117</v>
       </c>
       <c r="C15">
-        <v>19.54797717139087</v>
+        <v>21.69606085578202</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.27279030867517</v>
+        <v>15.43787242465471</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>80.74116502141105</v>
       </c>
       <c r="G15">
-        <v>43.42159130287754</v>
+        <v>2.001543376638295</v>
       </c>
       <c r="H15">
-        <v>43.42840655642353</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.36876422955665</v>
       </c>
       <c r="K15">
-        <v>24.64362854792864</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12.97975745462472</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.91888210906708</v>
+        <v>29.12957443391536</v>
       </c>
       <c r="C16">
-        <v>18.82113841366965</v>
+        <v>20.83002374496013</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.62660866471843</v>
+        <v>14.82022862731479</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>78.02011257823678</v>
       </c>
       <c r="G16">
-        <v>41.79933764168885</v>
+        <v>2.014222749626102</v>
       </c>
       <c r="H16">
-        <v>41.91497207195038</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.03740017886837</v>
       </c>
       <c r="K16">
-        <v>23.73617855598497</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.45038013845735</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.26860932066021</v>
+        <v>28.39771459040416</v>
       </c>
       <c r="C17">
-        <v>18.37204484413033</v>
+        <v>20.29562751558051</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.61510244469775</v>
+        <v>14.43919867856937</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>76.34731587367905</v>
       </c>
       <c r="G17">
-        <v>40.80498171601075</v>
+        <v>2.021922149604681</v>
       </c>
       <c r="H17">
-        <v>40.99051723659755</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.83523969711905</v>
       </c>
       <c r="K17">
-        <v>23.17428933113462</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12.1251016856522</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89191030316359</v>
+        <v>27.97440489139644</v>
       </c>
       <c r="C18">
-        <v>18.11233219627625</v>
+        <v>19.98683947654769</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.03201319724951</v>
+        <v>14.21907396245752</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>75.38322890111087</v>
       </c>
       <c r="G18">
-        <v>40.23288960613816</v>
+        <v>2.026327601848908</v>
       </c>
       <c r="H18">
-        <v>40.45982712320173</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.71928128414774</v>
       </c>
       <c r="K18">
-        <v>22.84894430423724</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11.93761384698238</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.76388194781338</v>
+        <v>27.8306450326734</v>
       </c>
       <c r="C19">
-        <v>18.02413649757073</v>
+        <v>19.88202166263867</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.83430562846814</v>
+        <v>14.14436125472895</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>75.05641782268908</v>
       </c>
       <c r="G19">
-        <v>40.03912030004484</v>
+        <v>2.02781577990823</v>
       </c>
       <c r="H19">
-        <v>40.28028522727151</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.68006661377386</v>
       </c>
       <c r="K19">
-        <v>22.73839493967001</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11.87404771681001</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.33810335713127</v>
+        <v>28.4758599762841</v>
       </c>
       <c r="C20">
-        <v>18.41999227134106</v>
+        <v>20.35265577728572</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.72289854841964</v>
+        <v>14.4798560352569</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>76.52557515423385</v>
       </c>
       <c r="G20">
-        <v>40.91083978126501</v>
+        <v>2.021105047030639</v>
       </c>
       <c r="H20">
-        <v>41.08881127543854</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.85672507941347</v>
       </c>
       <c r="K20">
-        <v>23.23432175056019</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12.15976480224677</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.23737402727384</v>
+        <v>30.61777929743558</v>
       </c>
       <c r="C21">
-        <v>19.73484778587337</v>
+        <v>21.9189367038052</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.69792750189481</v>
+        <v>15.59684282235523</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>81.4431883293594</v>
       </c>
       <c r="G21">
-        <v>43.84112002046891</v>
+        <v>1.998240073110356</v>
       </c>
       <c r="H21">
-        <v>43.84112002055918</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.45474694970944</v>
       </c>
       <c r="K21">
-        <v>24.87653081139836</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.11645197605287</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.46122011447283</v>
+        <v>32.00413962762622</v>
       </c>
       <c r="C22">
-        <v>20.58698400736499</v>
+        <v>22.9362979437086</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.64704890361672</v>
+        <v>16.32251210049339</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>84.65513210641348</v>
       </c>
       <c r="G22">
-        <v>45.77097778535306</v>
+        <v>1.982953210962441</v>
       </c>
       <c r="H22">
-        <v>45.76600434327327</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.85062174172368</v>
       </c>
       <c r="K22">
-        <v>25.93636959029915</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.74288047295994</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.80926904066391</v>
+        <v>31.26503075412224</v>
       </c>
       <c r="C23">
-        <v>20.13254359397159</v>
+        <v>22.39353809177908</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.60540824391706</v>
+        <v>15.93537142298676</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>82.94016478715645</v>
       </c>
       <c r="G23">
-        <v>44.73711622419381</v>
+        <v>1.991151166125516</v>
       </c>
       <c r="H23">
-        <v>44.73711622419379</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.63874982065009</v>
       </c>
       <c r="K23">
-        <v>25.37161987632693</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.40817529510409</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.30669404108382</v>
+        <v>28.44053847831421</v>
       </c>
       <c r="C24">
-        <v>18.39832003643844</v>
+        <v>20.32687821284873</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.67416895579356</v>
+        <v>14.46147820668528</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>76.44499167907985</v>
       </c>
       <c r="G24">
-        <v>40.86298278103055</v>
+        <v>2.021474523218457</v>
       </c>
       <c r="H24">
-        <v>41.04437017758421</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.84701073028711</v>
       </c>
       <c r="K24">
-        <v>23.20718833977811</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12.14409515317047</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50267635827877</v>
+        <v>25.30102331723146</v>
       </c>
       <c r="C25">
-        <v>16.4722252126737</v>
+        <v>18.04134247632989</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.37907003103558</v>
+        <v>12.83323327581542</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>69.36101833104254</v>
       </c>
       <c r="G25">
-        <v>36.67497988965418</v>
+        <v>2.053348487126164</v>
       </c>
       <c r="H25">
-        <v>37.18139597240653</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.00461902519597</v>
       </c>
       <c r="K25">
-        <v>20.78796350939721</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>10.76384399086269</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.87963035532535</v>
+        <v>15.59732259941754</v>
       </c>
       <c r="C2">
-        <v>16.28481098789877</v>
+        <v>6.150545895400597</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.66007526443939</v>
+        <v>9.017355068841153</v>
       </c>
       <c r="F2">
-        <v>64.02514607514028</v>
+        <v>31.62978731413044</v>
       </c>
       <c r="G2">
-        <v>2.076648999980284</v>
+        <v>35.21028413052849</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.00523764956575</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.38656402603402</v>
+        <v>5.833458222958164</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.40703522886082</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.752121516864947</v>
       </c>
       <c r="M2">
-        <v>9.714341708389728</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.17190911911737</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.15899498378904</v>
+        <v>14.71231058880348</v>
       </c>
       <c r="C3">
-        <v>15.0388215792328</v>
+        <v>6.058512668542377</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.86495960707936</v>
+        <v>8.828092866108943</v>
       </c>
       <c r="F3">
-        <v>60.31930110447475</v>
+        <v>30.93163354990376</v>
       </c>
       <c r="G3">
-        <v>2.092544012175218</v>
+        <v>34.69481555227638</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.02294794202512</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.966644232773756</v>
+        <v>5.868503648518383</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.64117914686571</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.527220195885409</v>
       </c>
       <c r="M3">
-        <v>8.975148929989697</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.39560229653863</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.06036741375156</v>
+        <v>14.1487058016966</v>
       </c>
       <c r="C4">
-        <v>14.24380933808543</v>
+        <v>6.001334123936207</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.36591755516007</v>
+        <v>8.713782588959255</v>
       </c>
       <c r="F4">
-        <v>57.99763765669697</v>
+        <v>30.51873620507646</v>
       </c>
       <c r="G4">
-        <v>2.102410957426361</v>
+        <v>34.40754707107357</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.04127151031225</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.707807586173301</v>
+        <v>5.890459633105181</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.15619505658127</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.389150728454186</v>
       </c>
       <c r="M4">
-        <v>8.505554827846444</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.53615873639348</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.60171848106907</v>
+        <v>13.9141744047458</v>
       </c>
       <c r="C5">
-        <v>13.91197222435786</v>
+        <v>5.977864753556978</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.15977694896892</v>
+        <v>8.667727849624853</v>
       </c>
       <c r="F5">
-        <v>57.03990467855805</v>
+        <v>30.3545572193367</v>
       </c>
       <c r="G5">
-        <v>2.106466050141014</v>
+        <v>34.29770027070358</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.05054348809606</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.602034368116968</v>
+        <v>5.89952263180128</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.990133339087985</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.332967306453289</v>
       </c>
       <c r="M5">
-        <v>8.309983473900445</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.59426427961699</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.52488985312651</v>
+        <v>13.87494472643094</v>
       </c>
       <c r="C6">
-        <v>13.85638724964988</v>
+        <v>5.973957505041308</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.12537936156743</v>
+        <v>8.660113837768586</v>
       </c>
       <c r="F6">
-        <v>56.88017591046906</v>
+        <v>30.32754499989523</v>
       </c>
       <c r="G6">
-        <v>2.107141658550913</v>
+        <v>34.27989190069761</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.05219014358478</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.584452156278193</v>
+        <v>5.901034685749964</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.962359848605718</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.323645274486419</v>
       </c>
       <c r="M6">
-        <v>8.277247971485863</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.60396325208222</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.05422666368313</v>
+        <v>14.14556216807235</v>
       </c>
       <c r="C7">
-        <v>14.23936630616561</v>
+        <v>6.001018290383286</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.36314874006835</v>
+        <v>8.713159275552162</v>
       </c>
       <c r="F7">
-        <v>57.98476826664852</v>
+        <v>30.51650536579055</v>
       </c>
       <c r="G7">
-        <v>2.102465498259867</v>
+        <v>34.40603660697724</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.04138933617979</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.706382326822709</v>
+        <v>5.890581383967004</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.15396895855752</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.38839258817613</v>
       </c>
       <c r="M7">
-        <v>8.502934636629506</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.5369389895552</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.29487213270655</v>
+        <v>15.29648239072937</v>
       </c>
       <c r="C8">
-        <v>15.86120319341172</v>
+        <v>6.118951423867302</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.38811909172281</v>
+        <v>8.951733837889037</v>
       </c>
       <c r="F8">
-        <v>62.75688677974173</v>
+        <v>31.38586115953433</v>
       </c>
       <c r="G8">
-        <v>2.08211196110195</v>
+        <v>35.02641000226721</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.00975651368785</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.24195088045826</v>
+        <v>5.845454485939564</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.148440439589</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.674615360486202</v>
       </c>
       <c r="M8">
-        <v>9.462570261534436</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.24838556654312</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.37390441020044</v>
+        <v>17.38569614704401</v>
       </c>
       <c r="C9">
-        <v>18.82121349533788</v>
+        <v>6.344973750244934</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.38851539614797</v>
+        <v>9.432454056536757</v>
       </c>
       <c r="F9">
-        <v>71.76316206470294</v>
+        <v>33.21056756419906</v>
       </c>
       <c r="G9">
-        <v>2.04266965215633</v>
+        <v>36.47985964974312</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.00996809551321</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.28762342285093</v>
+        <v>5.760162314139996</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.91464312793456</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.23297384566038</v>
       </c>
       <c r="M9">
-        <v>11.23285143691195</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.70700170011036</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.21278731617495</v>
+        <v>18.81125894422199</v>
       </c>
       <c r="C10">
-        <v>20.89082918043024</v>
+        <v>6.508033749253609</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.8635888188183</v>
+        <v>9.790693666004737</v>
       </c>
       <c r="F10">
-        <v>78.21077217517926</v>
+        <v>34.61734856301062</v>
       </c>
       <c r="G10">
-        <v>2.013340654136752</v>
+        <v>37.69778352804932</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.05249183240514</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.0605177337964</v>
+        <v>5.699038394977189</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.08858820884358</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.637683505288688</v>
       </c>
       <c r="M10">
-        <v>12.48745725670805</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.32274638881871</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.47990479489182</v>
+        <v>19.43520362878891</v>
       </c>
       <c r="C11">
-        <v>21.81792113130088</v>
+        <v>6.581635722129062</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.52479096333792</v>
+        <v>9.954222157022413</v>
       </c>
       <c r="F11">
-        <v>81.12492437008595</v>
+        <v>35.27034643627658</v>
       </c>
       <c r="G11">
-        <v>1.99973928956381</v>
+        <v>38.28538708831588</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.0820238178014</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.41574191390663</v>
+        <v>5.671466132089371</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.59653960141452</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.81993463949453</v>
       </c>
       <c r="M11">
-        <v>13.05447336072762</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.15055180869752</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.95729987532386</v>
+        <v>19.66791059184786</v>
       </c>
       <c r="C12">
-        <v>22.16781251381352</v>
+        <v>6.609432211638416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.77436263272302</v>
+        <v>10.01618631424968</v>
       </c>
       <c r="F12">
-        <v>82.22785403173879</v>
+        <v>35.51939660861826</v>
       </c>
       <c r="G12">
-        <v>1.994532002151878</v>
+        <v>38.51278927627663</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.09475551469445</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.5510847757247</v>
+        <v>5.661049752248652</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.78520210075351</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.888635412883868</v>
       </c>
       <c r="M12">
-        <v>13.26931913275324</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.08569450683954</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.85457304870794</v>
+        <v>19.6179519839845</v>
       </c>
       <c r="C13">
-        <v>22.09249314888883</v>
+        <v>6.603448931692628</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.72063799455454</v>
+        <v>10.00284008746608</v>
       </c>
       <c r="F13">
-        <v>81.9903042642508</v>
+        <v>35.46568174459604</v>
       </c>
       <c r="G13">
-        <v>1.995656366344307</v>
+        <v>38.463595688509</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.09194328869217</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.52189364852501</v>
+        <v>5.663292160470818</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.74473322367471</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.873854105846751</v>
       </c>
       <c r="M13">
-        <v>13.22303032606467</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.09964757562391</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.51922222306058</v>
+        <v>19.45442019452635</v>
       </c>
       <c r="C14">
-        <v>21.8467246881691</v>
+        <v>6.583924007780562</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.54533572205094</v>
+        <v>9.959319418208585</v>
       </c>
       <c r="F14">
-        <v>81.21566058947674</v>
+        <v>35.29080091516582</v>
       </c>
       <c r="G14">
-        <v>1.999312147438304</v>
+        <v>38.30399725274218</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.08303973996711</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.42685800624367</v>
+        <v>5.670608730280593</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.61213451136465</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.82559322798503</v>
       </c>
       <c r="M14">
-        <v>13.07214193123235</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.14520911220722</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.313528692117</v>
+        <v>19.35378698012833</v>
       </c>
       <c r="C15">
-        <v>21.69606085578202</v>
+        <v>6.571954924736987</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.43787242465471</v>
+        <v>9.932665726698858</v>
       </c>
       <c r="F15">
-        <v>80.74116502141105</v>
+        <v>35.18390964138915</v>
       </c>
       <c r="G15">
-        <v>2.001543376638295</v>
+        <v>38.20687720907816</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.07779024702439</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.36876422955665</v>
+        <v>5.675093271473586</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.53043565930346</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.795989899836595</v>
       </c>
       <c r="M15">
-        <v>12.97975745462472</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.17316155810037</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.12957443391536</v>
+        <v>18.76998496349186</v>
       </c>
       <c r="C16">
-        <v>20.83002374496013</v>
+        <v>6.503212732732347</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.82022862731479</v>
+        <v>9.780014389907102</v>
       </c>
       <c r="F16">
-        <v>78.02011257823678</v>
+        <v>34.57492706313746</v>
       </c>
       <c r="G16">
-        <v>2.014222749626102</v>
+        <v>37.66006307217094</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.05077394814909</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.03740017886837</v>
+        <v>5.70084425747663</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.05487284433126</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.625731472164638</v>
       </c>
       <c r="M16">
-        <v>12.45038013845735</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.33404995775819</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.39771459040416</v>
+        <v>18.4055193329199</v>
       </c>
       <c r="C17">
-        <v>20.29562751558051</v>
+        <v>6.460899259043111</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.43919867856937</v>
+        <v>9.686481249190138</v>
       </c>
       <c r="F17">
-        <v>76.34731587367905</v>
+        <v>34.20460001333262</v>
       </c>
       <c r="G17">
-        <v>2.021922149604681</v>
+        <v>37.33325241253257</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.03686845517833</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.83523969711905</v>
+        <v>5.716695305600249</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.75649379569563</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.520772930647686</v>
       </c>
       <c r="M17">
-        <v>12.1251016856522</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.43339899018704</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.97440489139644</v>
+        <v>18.19357808357145</v>
       </c>
       <c r="C18">
-        <v>19.98683947654769</v>
+        <v>6.436506990094622</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.21907396245752</v>
+        <v>9.632738752276609</v>
       </c>
       <c r="F18">
-        <v>75.38322890111087</v>
+        <v>33.99283090661697</v>
       </c>
       <c r="G18">
-        <v>2.026327601848908</v>
+        <v>37.14843530289939</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.0298241739605</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.71928128414774</v>
+        <v>5.725834946823</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.58241510186912</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.460231502415622</v>
       </c>
       <c r="M18">
-        <v>11.93761384698238</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.4907886944562</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.8306450326734</v>
+        <v>18.12142314533019</v>
       </c>
       <c r="C19">
-        <v>19.88202166263867</v>
+        <v>6.428238593059714</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.14436125472895</v>
+        <v>9.614553293625155</v>
       </c>
       <c r="F19">
-        <v>75.05641782268908</v>
+        <v>33.921344692142</v>
       </c>
       <c r="G19">
-        <v>2.02781577990823</v>
+        <v>37.08639945130832</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.02760040320352</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.68006661377386</v>
+        <v>5.728933602461633</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.52305086294074</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.439705219008262</v>
       </c>
       <c r="M19">
-        <v>11.87404771681001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.51026301499426</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.4758599762841</v>
+        <v>18.44455676682417</v>
       </c>
       <c r="C20">
-        <v>20.35265577728572</v>
+        <v>6.465409210011224</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.4798560352569</v>
+        <v>9.696432602973047</v>
       </c>
       <c r="F20">
-        <v>76.52557515423385</v>
+        <v>34.2438951157423</v>
       </c>
       <c r="G20">
-        <v>2.021105047030639</v>
+        <v>37.36771489688359</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.03824940618558</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.85672507941347</v>
+        <v>5.715005664060238</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.78851080361622</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.53196411771766</v>
       </c>
       <c r="M20">
-        <v>12.15976480224677</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.42279775996204</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.61777929743558</v>
+        <v>19.50255044095869</v>
       </c>
       <c r="C21">
-        <v>21.9189367038052</v>
+        <v>6.589660915205559</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.59684282235523</v>
+        <v>9.972101733740779</v>
       </c>
       <c r="F21">
-        <v>81.4431883293594</v>
+        <v>35.34212023830559</v>
       </c>
       <c r="G21">
-        <v>1.998240073110356</v>
+        <v>38.35074198493145</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.08561222333008</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.45474694970944</v>
+        <v>5.668459082583081</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.65118152952951</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.839777475624343</v>
       </c>
       <c r="M21">
-        <v>13.11645197605287</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.13181731764298</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.00413962762622</v>
+        <v>20.21736870791258</v>
       </c>
       <c r="C22">
-        <v>22.9362979437086</v>
+        <v>6.670434556004769</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.32251210049339</v>
+        <v>10.15248117225499</v>
       </c>
       <c r="F22">
-        <v>84.65513210641348</v>
+        <v>36.07017941697816</v>
       </c>
       <c r="G22">
-        <v>1.982953210962441</v>
+        <v>39.02173643951099</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.12563318773048</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.85062174172368</v>
+        <v>5.638177101126953</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.19352411568462</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.039105394640256</v>
       </c>
       <c r="M22">
-        <v>13.74288047295994</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.94366710286474</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.26503075412224</v>
+        <v>19.82769360960905</v>
       </c>
       <c r="C23">
-        <v>22.39353809177908</v>
+        <v>6.627360615565737</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.93537142298676</v>
+        <v>10.05620237637896</v>
       </c>
       <c r="F23">
-        <v>82.94016478715645</v>
+        <v>35.68068685364917</v>
       </c>
       <c r="G23">
-        <v>1.991151166125516</v>
+        <v>38.66098275337874</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.10341546561048</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.63874982065009</v>
+        <v>5.654329605648285</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.90600771612943</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.932903042708867</v>
       </c>
       <c r="M23">
-        <v>13.40817529510409</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.04390994181223</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.44053847831421</v>
+        <v>18.42691543125456</v>
       </c>
       <c r="C24">
-        <v>20.32687821284873</v>
+        <v>6.463370466340544</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.46147820668528</v>
+        <v>9.691933496316551</v>
       </c>
       <c r="F24">
-        <v>76.44499167907985</v>
+        <v>34.22612625095305</v>
       </c>
       <c r="G24">
-        <v>2.021474523218457</v>
+        <v>37.35212484792094</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.03762212496498</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.84701073028711</v>
+        <v>5.715769467288466</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.77404382000453</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.526905199350677</v>
       </c>
       <c r="M24">
-        <v>12.14409515317047</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.42758972506088</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.30102331723146</v>
+        <v>16.8393372949869</v>
       </c>
       <c r="C25">
-        <v>18.04134247632989</v>
+        <v>6.28437449912667</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.83323327581542</v>
+        <v>9.301324644142611</v>
       </c>
       <c r="F25">
-        <v>69.36101833104254</v>
+        <v>32.70482515915013</v>
       </c>
       <c r="G25">
-        <v>2.053348487126164</v>
+        <v>36.060658397665</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.00279738890699</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.00461902519597</v>
+        <v>5.782933961878381</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.45880098122964</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.082644419947831</v>
       </c>
       <c r="M25">
-        <v>10.76384399086269</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.85098476920884</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.59732259941754</v>
+        <v>16.52286145407815</v>
       </c>
       <c r="C2">
-        <v>6.150545895400597</v>
+        <v>8.125618589812118</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.017355068841153</v>
+        <v>14.38647635573963</v>
       </c>
       <c r="F2">
-        <v>31.62978731413044</v>
+        <v>43.34187850778581</v>
       </c>
       <c r="G2">
-        <v>35.21028413052849</v>
+        <v>46.43838137436528</v>
       </c>
       <c r="H2">
-        <v>12.00523764956575</v>
+        <v>18.74069898220959</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.833458222958164</v>
+        <v>9.10876621359731</v>
       </c>
       <c r="K2">
-        <v>11.40703522886082</v>
+        <v>12.22153038638588</v>
       </c>
       <c r="L2">
-        <v>7.752121516864947</v>
+        <v>11.88983048196474</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.17190911911737</v>
+        <v>21.68470469119048</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.71231058880348</v>
+        <v>16.34650949619729</v>
       </c>
       <c r="C3">
-        <v>6.058512668542377</v>
+        <v>8.099939141803356</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.828092866108943</v>
+        <v>14.38743306750946</v>
       </c>
       <c r="F3">
-        <v>30.93163354990376</v>
+        <v>43.33592584803153</v>
       </c>
       <c r="G3">
-        <v>34.69481555227638</v>
+        <v>46.47913914430563</v>
       </c>
       <c r="H3">
-        <v>12.02294794202512</v>
+        <v>18.7866567260709</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.868503648518383</v>
+        <v>9.117806293246066</v>
       </c>
       <c r="K3">
-        <v>10.64117914686571</v>
+        <v>12.10248626522043</v>
       </c>
       <c r="L3">
-        <v>7.527220195885409</v>
+        <v>11.87879153295757</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.39560229653863</v>
+        <v>21.74958963312509</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.1487058016966</v>
+        <v>16.24104519152755</v>
       </c>
       <c r="C4">
-        <v>6.001334123936207</v>
+        <v>8.083796214296605</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.713782588959255</v>
+        <v>14.39002244022426</v>
       </c>
       <c r="F4">
-        <v>30.51873620507646</v>
+        <v>43.34155791407336</v>
       </c>
       <c r="G4">
-        <v>34.40754707107357</v>
+        <v>46.515602263716</v>
       </c>
       <c r="H4">
-        <v>12.04127151031225</v>
+        <v>18.81775001090841</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.890459633105181</v>
+        <v>9.123627386836754</v>
       </c>
       <c r="K4">
-        <v>10.15619505658127</v>
+        <v>12.0314687895017</v>
       </c>
       <c r="L4">
-        <v>7.389150728454186</v>
+        <v>11.8737695242833</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.53615873639348</v>
+        <v>21.7913230628302</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.9141744047458</v>
+        <v>16.19882342886564</v>
       </c>
       <c r="C5">
-        <v>5.977864753556978</v>
+        <v>8.077123981420712</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.667727849624853</v>
+        <v>14.3915824004535</v>
       </c>
       <c r="F5">
-        <v>30.3545572193367</v>
+        <v>43.34619002035595</v>
       </c>
       <c r="G5">
-        <v>34.29770027070358</v>
+        <v>46.53333145196748</v>
       </c>
       <c r="H5">
-        <v>12.05054348809606</v>
+        <v>18.83114323127051</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.89952263180128</v>
+        <v>9.126067757619735</v>
       </c>
       <c r="K5">
-        <v>9.990133339087985</v>
+        <v>12.0030809905039</v>
       </c>
       <c r="L5">
-        <v>7.332967306453289</v>
+        <v>11.87216674421864</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.59426427961699</v>
+        <v>21.80880724686681</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.87494472643094</v>
+        <v>16.19185954649728</v>
       </c>
       <c r="C6">
-        <v>5.973957505041308</v>
+        <v>8.076010410826337</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.660113837768586</v>
+        <v>14.39187195433515</v>
       </c>
       <c r="F6">
-        <v>30.32754499989523</v>
+        <v>43.34710035129699</v>
       </c>
       <c r="G6">
-        <v>34.27989190069761</v>
+        <v>46.53644852246196</v>
       </c>
       <c r="H6">
-        <v>12.05219014358478</v>
+        <v>18.83341078461773</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.901034685749964</v>
+        <v>9.126477106631341</v>
       </c>
       <c r="K6">
-        <v>9.962359848605718</v>
+        <v>11.99840144761394</v>
       </c>
       <c r="L6">
-        <v>7.323645274486419</v>
+        <v>11.87192746337482</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.60396325208222</v>
+        <v>21.81173935752937</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.14556216807235</v>
+        <v>16.24047265214323</v>
       </c>
       <c r="C7">
-        <v>6.001018290383286</v>
+        <v>8.08370660946491</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.713159275552162</v>
+        <v>14.39004143290559</v>
       </c>
       <c r="F7">
-        <v>30.51650536579055</v>
+        <v>43.34161092062831</v>
       </c>
       <c r="G7">
-        <v>34.40603660697724</v>
+        <v>46.51582975341589</v>
       </c>
       <c r="H7">
-        <v>12.04138933617979</v>
+        <v>18.81792771207673</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.890581383967004</v>
+        <v>9.123660021988615</v>
       </c>
       <c r="K7">
-        <v>10.15396895855752</v>
+        <v>12.03108366577832</v>
       </c>
       <c r="L7">
-        <v>7.38839258817613</v>
+        <v>11.87374610926718</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.5369389895552</v>
+        <v>21.79155692572964</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.29648239072937</v>
+        <v>16.46149969747889</v>
       </c>
       <c r="C8">
-        <v>6.118951423867302</v>
+        <v>8.11684263734967</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.951733837889037</v>
+        <v>14.38639158652842</v>
       </c>
       <c r="F8">
-        <v>31.38586115953433</v>
+        <v>43.33789989349095</v>
       </c>
       <c r="G8">
-        <v>35.02641000226721</v>
+        <v>46.45005757990155</v>
       </c>
       <c r="H8">
-        <v>12.00975651368785</v>
+        <v>18.75594820559559</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.845454485939564</v>
+        <v>9.111827235413173</v>
       </c>
       <c r="K8">
-        <v>11.148440439589</v>
+        <v>12.18007159727758</v>
       </c>
       <c r="L8">
-        <v>7.674615360486202</v>
+        <v>11.88566117569304</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.24838556654312</v>
+        <v>21.70668471885461</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.38569614704401</v>
+        <v>16.91512832613881</v>
       </c>
       <c r="C9">
-        <v>6.344973750244934</v>
+        <v>8.178817020822278</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.432454056536757</v>
+        <v>14.39505405043738</v>
       </c>
       <c r="F9">
-        <v>33.21056756419906</v>
+        <v>43.40418677267964</v>
       </c>
       <c r="G9">
-        <v>36.47985964974312</v>
+        <v>46.41204291836164</v>
       </c>
       <c r="H9">
-        <v>12.00996809551321</v>
+        <v>18.65724058365522</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.760162314139996</v>
+        <v>9.090758846944178</v>
       </c>
       <c r="K9">
-        <v>12.91464312793456</v>
+        <v>12.48733019775341</v>
       </c>
       <c r="L9">
-        <v>8.23297384566038</v>
+        <v>11.92285546666409</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.70700170011036</v>
+        <v>21.55521864788574</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.81125894422199</v>
+        <v>17.25777452549211</v>
       </c>
       <c r="C10">
-        <v>6.508033749253609</v>
+        <v>8.222486798300455</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.790693666004737</v>
+        <v>14.41096844715387</v>
       </c>
       <c r="F10">
-        <v>34.61734856301062</v>
+        <v>43.49749442718206</v>
       </c>
       <c r="G10">
-        <v>37.69778352804932</v>
+        <v>46.4397774896517</v>
       </c>
       <c r="H10">
-        <v>12.05249183240514</v>
+        <v>18.59866936093044</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.699038394977189</v>
+        <v>9.076567411853524</v>
       </c>
       <c r="K10">
-        <v>14.08858820884358</v>
+        <v>12.72037743147844</v>
       </c>
       <c r="L10">
-        <v>8.637683505288688</v>
+        <v>11.95846175505744</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.32274638881871</v>
+        <v>21.45297805889639</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.43520362878891</v>
+        <v>17.4150517600306</v>
       </c>
       <c r="C11">
-        <v>6.581635722129062</v>
+        <v>8.241942335715571</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.954222157022413</v>
+        <v>14.42025871463958</v>
       </c>
       <c r="F11">
-        <v>35.27034643627658</v>
+        <v>43.54954965917661</v>
       </c>
       <c r="G11">
-        <v>38.28538708831588</v>
+        <v>46.46449656649488</v>
       </c>
       <c r="H11">
-        <v>12.0820238178014</v>
+        <v>18.57505838884792</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.671466132089371</v>
+        <v>9.070387840549353</v>
       </c>
       <c r="K11">
-        <v>14.59653960141452</v>
+        <v>12.82757057142612</v>
       </c>
       <c r="L11">
-        <v>8.81993463949453</v>
+        <v>11.97642116387141</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.15055180869752</v>
+        <v>21.40841170562017</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.66791059184786</v>
+        <v>17.47475764187111</v>
       </c>
       <c r="C12">
-        <v>6.609432211638416</v>
+        <v>8.249250050219793</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.01618631424968</v>
+        <v>14.42406929908644</v>
       </c>
       <c r="F12">
-        <v>35.51939660861826</v>
+        <v>43.57063433704084</v>
       </c>
       <c r="G12">
-        <v>38.51278927627663</v>
+        <v>46.47559587007488</v>
       </c>
       <c r="H12">
-        <v>12.09475551469445</v>
+        <v>18.56655413684907</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.661049752248652</v>
+        <v>9.068087280073602</v>
       </c>
       <c r="K12">
-        <v>14.78520210075351</v>
+        <v>12.86829662191687</v>
       </c>
       <c r="L12">
-        <v>8.888635412883868</v>
+        <v>11.98347178817919</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.08569450683954</v>
+        <v>21.3918137541656</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.6179519839845</v>
+        <v>17.46189316107349</v>
       </c>
       <c r="C13">
-        <v>6.603448931692628</v>
+        <v>8.247678868533898</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.00284008746608</v>
+        <v>14.42323564871137</v>
       </c>
       <c r="F13">
-        <v>35.46568174459604</v>
+        <v>43.56603249504315</v>
       </c>
       <c r="G13">
-        <v>38.463595688509</v>
+        <v>46.47312814828883</v>
       </c>
       <c r="H13">
-        <v>12.09194328869217</v>
+        <v>18.56836624909663</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.663292160470818</v>
+        <v>9.068580993021936</v>
       </c>
       <c r="K13">
-        <v>14.74473322367471</v>
+        <v>12.85952012158659</v>
       </c>
       <c r="L13">
-        <v>8.873854105846751</v>
+        <v>11.98194226007511</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.09964757562391</v>
+        <v>21.39537605723535</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.45442019452635</v>
+        <v>17.419961130383</v>
       </c>
       <c r="C14">
-        <v>6.583924007780562</v>
+        <v>8.242544745834387</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.959319418208585</v>
+        <v>14.4205663642972</v>
       </c>
       <c r="F14">
-        <v>35.29080091516582</v>
+        <v>43.55125685964919</v>
       </c>
       <c r="G14">
-        <v>38.30399725274218</v>
+        <v>46.46537488095957</v>
       </c>
       <c r="H14">
-        <v>12.08303973996711</v>
+        <v>18.57434998378625</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.670608730280593</v>
+        <v>9.070197781408826</v>
       </c>
       <c r="K14">
-        <v>14.61213451136465</v>
+        <v>12.83091863661701</v>
       </c>
       <c r="L14">
-        <v>8.82559322798503</v>
+        <v>11.9769962381622</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.14520911220722</v>
+        <v>21.40704060967877</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.35378698012833</v>
+        <v>17.39429429222531</v>
       </c>
       <c r="C15">
-        <v>6.571954924736987</v>
+        <v>8.239392154882909</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.932665726698858</v>
+        <v>14.41896937861712</v>
       </c>
       <c r="F15">
-        <v>35.18390964138915</v>
+        <v>43.54238479600085</v>
       </c>
       <c r="G15">
-        <v>38.20687720907816</v>
+        <v>46.46085214006357</v>
       </c>
       <c r="H15">
-        <v>12.07779024702439</v>
+        <v>18.57807208124978</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.675093271473586</v>
+        <v>9.071193250137586</v>
       </c>
       <c r="K15">
-        <v>14.53043565930346</v>
+        <v>12.81341585486541</v>
       </c>
       <c r="L15">
-        <v>8.795989899836595</v>
+        <v>11.97399907652178</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.17316155810037</v>
+        <v>21.41422170306085</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.76998496349186</v>
+        <v>17.24751977032933</v>
       </c>
       <c r="C16">
-        <v>6.503212732732347</v>
+        <v>8.221207021130885</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.780014389907102</v>
+        <v>14.41040237692073</v>
       </c>
       <c r="F16">
-        <v>34.57492706313746</v>
+        <v>43.49428509292749</v>
       </c>
       <c r="G16">
-        <v>37.66006307217094</v>
+        <v>46.43840547206575</v>
       </c>
       <c r="H16">
-        <v>12.05077394814909</v>
+        <v>18.60027347771934</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.70084425747663</v>
+        <v>9.07697680127179</v>
       </c>
       <c r="K16">
-        <v>14.05487284433126</v>
+        <v>12.71339281754821</v>
       </c>
       <c r="L16">
-        <v>8.625731472164638</v>
+        <v>11.95732321920748</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.33404995775819</v>
+        <v>21.45592958680066</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.4055193329199</v>
+        <v>17.15780001756944</v>
       </c>
       <c r="C17">
-        <v>6.460899259043111</v>
+        <v>8.20994550012257</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.686481249190138</v>
+        <v>14.40567043590927</v>
       </c>
       <c r="F17">
-        <v>34.20460001333262</v>
+        <v>43.46723243898893</v>
       </c>
       <c r="G17">
-        <v>37.33325241253257</v>
+        <v>46.42773426595279</v>
       </c>
       <c r="H17">
-        <v>12.03686845517833</v>
+        <v>18.61467061487683</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.716695305600249</v>
+        <v>9.080595413016002</v>
       </c>
       <c r="K17">
-        <v>13.75649379569563</v>
+        <v>12.65230877044553</v>
       </c>
       <c r="L17">
-        <v>8.520772930647686</v>
+        <v>11.94754191814107</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.43339899018704</v>
+        <v>21.48201298779082</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.19357808357145</v>
+        <v>17.10633109930768</v>
       </c>
       <c r="C18">
-        <v>6.436506990094622</v>
+        <v>8.20342961659224</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.632738752276609</v>
+        <v>14.40314192322061</v>
       </c>
       <c r="F18">
-        <v>33.99283090661697</v>
+        <v>43.45257756691859</v>
       </c>
       <c r="G18">
-        <v>37.14843530289939</v>
+        <v>46.42273580778163</v>
       </c>
       <c r="H18">
-        <v>12.0298241739605</v>
+        <v>18.62323695433918</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.725834946823</v>
+        <v>9.082702750712043</v>
       </c>
       <c r="K18">
-        <v>13.58241510186912</v>
+        <v>12.61728789627072</v>
       </c>
       <c r="L18">
-        <v>8.460231502415622</v>
+        <v>11.94208204183072</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.4907886944562</v>
+        <v>21.49719845725474</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.12142314533019</v>
+        <v>17.08892952750705</v>
       </c>
       <c r="C19">
-        <v>6.428238593059714</v>
+        <v>8.201216850154083</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.614553293625155</v>
+        <v>14.40231905839531</v>
       </c>
       <c r="F19">
-        <v>33.921344692142</v>
+        <v>43.44777139101421</v>
       </c>
       <c r="G19">
-        <v>37.08639945130832</v>
+        <v>46.42123912105732</v>
       </c>
       <c r="H19">
-        <v>12.02760040320352</v>
+        <v>18.62618638596992</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.728933602461633</v>
+        <v>9.083420732229676</v>
       </c>
       <c r="K19">
-        <v>13.52305086294074</v>
+        <v>12.60545092128353</v>
       </c>
       <c r="L19">
-        <v>8.439705219008262</v>
+        <v>11.94026204948383</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.51026301499426</v>
+        <v>21.50237145827394</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44455676682417</v>
+        <v>17.16733720450987</v>
       </c>
       <c r="C20">
-        <v>6.465409210011224</v>
+        <v>8.211148303640323</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.696432602973047</v>
+        <v>14.40615418260468</v>
       </c>
       <c r="F20">
-        <v>34.2438951157423</v>
+        <v>43.47001862868672</v>
       </c>
       <c r="G20">
-        <v>37.36771489688359</v>
+        <v>46.42875232343934</v>
       </c>
       <c r="H20">
-        <v>12.03824940618558</v>
+        <v>18.61310846432399</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.715005664060238</v>
+        <v>9.080207515385636</v>
       </c>
       <c r="K20">
-        <v>13.78851080361622</v>
+        <v>12.65879982616447</v>
       </c>
       <c r="L20">
-        <v>8.53196411771766</v>
+        <v>11.94856599200144</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.42279775996204</v>
+        <v>21.47921743473946</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.50255044095869</v>
+        <v>17.43227398201117</v>
       </c>
       <c r="C21">
-        <v>6.589660915205559</v>
+        <v>8.244054387353039</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.972101733740779</v>
+        <v>14.42134247721192</v>
       </c>
       <c r="F21">
-        <v>35.34212023830559</v>
+        <v>43.55555965376859</v>
       </c>
       <c r="G21">
-        <v>38.35074198493145</v>
+        <v>46.4676050355093</v>
       </c>
       <c r="H21">
-        <v>12.08561222333008</v>
+        <v>18.57258055976061</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.668459082583081</v>
+        <v>9.069721820837616</v>
       </c>
       <c r="K21">
-        <v>14.65118152952951</v>
+        <v>12.83931621960121</v>
       </c>
       <c r="L21">
-        <v>8.839777475624343</v>
+        <v>11.97844225516726</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.13181731764298</v>
+        <v>21.40360690197343</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.21736870791258</v>
+        <v>17.60626604139435</v>
       </c>
       <c r="C22">
-        <v>6.670434556004769</v>
+        <v>8.265212251908848</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.15248117225499</v>
+        <v>14.43297297824697</v>
       </c>
       <c r="F22">
-        <v>36.07017941697816</v>
+        <v>43.61946030915885</v>
       </c>
       <c r="G22">
-        <v>39.02173643951099</v>
+        <v>46.50313030102165</v>
       </c>
       <c r="H22">
-        <v>12.12563318773048</v>
+        <v>18.54863892381332</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.638177101126953</v>
+        <v>9.063099007687445</v>
       </c>
       <c r="K22">
-        <v>15.19352411568462</v>
+        <v>12.95806098612404</v>
       </c>
       <c r="L22">
-        <v>9.039105394640256</v>
+        <v>11.99942225132351</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.94366710286474</v>
+        <v>21.35581303893983</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.82769360960905</v>
+        <v>17.51334388756051</v>
       </c>
       <c r="C23">
-        <v>6.627360615565737</v>
+        <v>8.253951993044186</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.05620237637896</v>
+        <v>14.42661045220261</v>
       </c>
       <c r="F23">
-        <v>35.68068685364917</v>
+        <v>43.58462723977545</v>
       </c>
       <c r="G23">
-        <v>38.66098275337874</v>
+        <v>46.48324358275296</v>
       </c>
       <c r="H23">
-        <v>12.10341546561048</v>
+        <v>18.56118393539445</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.654329605648285</v>
+        <v>9.066612732603973</v>
       </c>
       <c r="K23">
-        <v>14.90600771612943</v>
+        <v>12.89462606176451</v>
       </c>
       <c r="L23">
-        <v>8.932903042708867</v>
+        <v>11.98809301753055</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.04390994181223</v>
+        <v>21.38117347048636</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42691543125456</v>
+        <v>17.16302508879867</v>
       </c>
       <c r="C24">
-        <v>6.463370466340544</v>
+        <v>8.210604645357314</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.691933496316551</v>
+        <v>14.40593488267869</v>
       </c>
       <c r="F24">
-        <v>34.22612625095305</v>
+        <v>43.46875619420293</v>
       </c>
       <c r="G24">
-        <v>37.35212484792094</v>
+        <v>46.42828851914946</v>
       </c>
       <c r="H24">
-        <v>12.03762212496498</v>
+        <v>18.61381381164541</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.715769467288466</v>
+        <v>9.080382799934592</v>
       </c>
       <c r="K24">
-        <v>13.77404382000453</v>
+        <v>12.65586491453749</v>
       </c>
       <c r="L24">
-        <v>8.526905199350677</v>
+        <v>11.94810249858666</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.42758972506088</v>
+        <v>21.48048071301505</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.8393372949869</v>
+        <v>16.79054966949834</v>
       </c>
       <c r="C25">
-        <v>6.28437449912667</v>
+        <v>8.162376192228667</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.301324644142611</v>
+        <v>14.39102605503928</v>
       </c>
       <c r="F25">
-        <v>32.70482515915013</v>
+        <v>43.37839825709851</v>
       </c>
       <c r="G25">
-        <v>36.060658397665</v>
+        <v>46.41256112257678</v>
       </c>
       <c r="H25">
-        <v>12.00279738890699</v>
+        <v>18.68149593512384</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.782933961878381</v>
+        <v>9.096231264419281</v>
       </c>
       <c r="K25">
-        <v>12.45880098122964</v>
+        <v>12.40278655380349</v>
       </c>
       <c r="L25">
-        <v>8.082644419947831</v>
+        <v>11.91132761316164</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.85098476920884</v>
+        <v>21.59460047149297</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.52286145407815</v>
+        <v>15.59732259941754</v>
       </c>
       <c r="C2">
-        <v>8.125618589812118</v>
+        <v>6.150545895400471</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.38647635573963</v>
+        <v>9.017355068841018</v>
       </c>
       <c r="F2">
-        <v>43.34187850778581</v>
+        <v>31.62978731413036</v>
       </c>
       <c r="G2">
-        <v>46.43838137436528</v>
+        <v>35.21028413052837</v>
       </c>
       <c r="H2">
-        <v>18.74069898220959</v>
+        <v>12.0052376495659</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.10876621359731</v>
+        <v>5.833458222958231</v>
       </c>
       <c r="K2">
-        <v>12.22153038638588</v>
+        <v>11.40703522886077</v>
       </c>
       <c r="L2">
-        <v>11.88983048196474</v>
+        <v>7.752121516864861</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.68470469119048</v>
+        <v>14.17190911911737</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.34650949619729</v>
+        <v>14.71231058880348</v>
       </c>
       <c r="C3">
-        <v>8.099939141803356</v>
+        <v>6.05851266854225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.38743306750946</v>
+        <v>8.828092866108856</v>
       </c>
       <c r="F3">
-        <v>43.33592584803153</v>
+        <v>30.93163354990373</v>
       </c>
       <c r="G3">
-        <v>46.47913914430563</v>
+        <v>34.6948155522764</v>
       </c>
       <c r="H3">
-        <v>18.7866567260709</v>
+        <v>12.02294794202512</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.117806293246066</v>
+        <v>5.868503648518315</v>
       </c>
       <c r="K3">
-        <v>12.10248626522043</v>
+        <v>10.6411791468657</v>
       </c>
       <c r="L3">
-        <v>11.87879153295757</v>
+        <v>7.527220195885401</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.74958963312509</v>
+        <v>14.39560229653863</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.24104519152755</v>
+        <v>14.14870580169665</v>
       </c>
       <c r="C4">
-        <v>8.083796214296605</v>
+        <v>6.00133412393634</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.39002244022426</v>
+        <v>8.713782588959264</v>
       </c>
       <c r="F4">
-        <v>43.34155791407336</v>
+        <v>30.51873620507671</v>
       </c>
       <c r="G4">
-        <v>46.515602263716</v>
+        <v>34.40754707107374</v>
       </c>
       <c r="H4">
-        <v>18.81775001090841</v>
+        <v>12.04127151031231</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.123627386836754</v>
+        <v>5.890459633105046</v>
       </c>
       <c r="K4">
-        <v>12.0314687895017</v>
+        <v>10.1561950565813</v>
       </c>
       <c r="L4">
-        <v>11.8737695242833</v>
+        <v>7.389150728454154</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.7913230628302</v>
+        <v>14.53615873639351</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.19882342886564</v>
+        <v>13.91417440474574</v>
       </c>
       <c r="C5">
-        <v>8.077123981420712</v>
+        <v>5.977864753557384</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.3915824004535</v>
+        <v>8.667727849625077</v>
       </c>
       <c r="F5">
-        <v>43.34619002035595</v>
+        <v>30.35455721933658</v>
       </c>
       <c r="G5">
-        <v>46.53333145196748</v>
+        <v>34.297700270703</v>
       </c>
       <c r="H5">
-        <v>18.83114323127051</v>
+        <v>12.05054348809601</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.126067757619735</v>
+        <v>5.899522631801246</v>
       </c>
       <c r="K5">
-        <v>12.0030809905039</v>
+        <v>9.990133339087915</v>
       </c>
       <c r="L5">
-        <v>11.87216674421864</v>
+        <v>7.332967306453379</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.80880724686681</v>
+        <v>14.59426427961693</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.19185954649728</v>
+        <v>13.87494472643095</v>
       </c>
       <c r="C6">
-        <v>8.076010410826337</v>
+        <v>5.973957505041452</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.39187195433515</v>
+        <v>8.660113837768527</v>
       </c>
       <c r="F6">
-        <v>43.34710035129699</v>
+        <v>30.32754499989518</v>
       </c>
       <c r="G6">
-        <v>46.53644852246196</v>
+        <v>34.27989190069764</v>
       </c>
       <c r="H6">
-        <v>18.83341078461773</v>
+        <v>12.05219014358462</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.126477106631341</v>
+        <v>5.901034685749829</v>
       </c>
       <c r="K6">
-        <v>11.99840144761394</v>
+        <v>9.962359848605718</v>
       </c>
       <c r="L6">
-        <v>11.87192746337482</v>
+        <v>7.323645274486329</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.81173935752937</v>
+        <v>14.60396325208218</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.24047265214323</v>
+        <v>14.14556216807236</v>
       </c>
       <c r="C7">
-        <v>8.08370660946491</v>
+        <v>6.001018290383302</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.39004143290559</v>
+        <v>8.713159275552201</v>
       </c>
       <c r="F7">
-        <v>43.34161092062831</v>
+        <v>30.51650536579061</v>
       </c>
       <c r="G7">
-        <v>46.51582975341589</v>
+        <v>34.4060366069774</v>
       </c>
       <c r="H7">
-        <v>18.81792771207673</v>
+        <v>12.04138933617991</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.123660021988615</v>
+        <v>5.890581383967104</v>
       </c>
       <c r="K7">
-        <v>12.03108366577832</v>
+        <v>10.15396895855754</v>
       </c>
       <c r="L7">
-        <v>11.87374610926718</v>
+        <v>7.388392588176126</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.79155692572964</v>
+        <v>14.5369389895553</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.46149969747889</v>
+        <v>15.29648239072937</v>
       </c>
       <c r="C8">
-        <v>8.11684263734967</v>
+        <v>6.118951423867039</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.38639158652842</v>
+        <v>8.951733837888943</v>
       </c>
       <c r="F8">
-        <v>43.33789989349095</v>
+        <v>31.38586115953424</v>
       </c>
       <c r="G8">
-        <v>46.45005757990155</v>
+        <v>35.02641000226712</v>
       </c>
       <c r="H8">
-        <v>18.75594820559559</v>
+        <v>12.00975651368786</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.111827235413173</v>
+        <v>5.845454485939498</v>
       </c>
       <c r="K8">
-        <v>12.18007159727758</v>
+        <v>11.14844043958901</v>
       </c>
       <c r="L8">
-        <v>11.88566117569304</v>
+        <v>7.67461536048615</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.70668471885461</v>
+        <v>14.2483855665431</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91512832613881</v>
+        <v>17.385696147044</v>
       </c>
       <c r="C9">
-        <v>8.178817020822278</v>
+        <v>6.344973750244938</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.39505405043738</v>
+        <v>9.432454056536793</v>
       </c>
       <c r="F9">
-        <v>43.40418677267964</v>
+        <v>33.21056756419916</v>
       </c>
       <c r="G9">
-        <v>46.41204291836164</v>
+        <v>36.47985964974351</v>
       </c>
       <c r="H9">
-        <v>18.65724058365522</v>
+        <v>12.0099680955133</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.090758846944178</v>
+        <v>5.760162314140165</v>
       </c>
       <c r="K9">
-        <v>12.48733019775341</v>
+        <v>12.91464312793448</v>
       </c>
       <c r="L9">
-        <v>11.92285546666409</v>
+        <v>8.232973845660384</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.55521864788574</v>
+        <v>13.70700170011049</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.25777452549211</v>
+        <v>18.81125894422202</v>
       </c>
       <c r="C10">
-        <v>8.222486798300455</v>
+        <v>6.508033749253469</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.41096844715387</v>
+        <v>9.790693666004778</v>
       </c>
       <c r="F10">
-        <v>43.49749442718206</v>
+        <v>34.61734856301069</v>
       </c>
       <c r="G10">
-        <v>46.4397774896517</v>
+        <v>37.69778352804952</v>
       </c>
       <c r="H10">
-        <v>18.59866936093044</v>
+        <v>12.05249183240513</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.076567411853524</v>
+        <v>5.699038394977189</v>
       </c>
       <c r="K10">
-        <v>12.72037743147844</v>
+        <v>14.08858820884352</v>
       </c>
       <c r="L10">
-        <v>11.95846175505744</v>
+        <v>8.637683505288738</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.45297805889639</v>
+        <v>13.32274638881874</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.4150517600306</v>
+        <v>19.4352036287889</v>
       </c>
       <c r="C11">
-        <v>8.241942335715571</v>
+        <v>6.58163572212881</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.42025871463958</v>
+        <v>9.954222157022413</v>
       </c>
       <c r="F11">
-        <v>43.54954965917661</v>
+        <v>35.27034643627665</v>
       </c>
       <c r="G11">
-        <v>46.46449656649488</v>
+        <v>38.28538708831585</v>
       </c>
       <c r="H11">
-        <v>18.57505838884792</v>
+        <v>12.08202381780145</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.070387840549353</v>
+        <v>5.67146613208927</v>
       </c>
       <c r="K11">
-        <v>12.82757057142612</v>
+        <v>14.59653960141451</v>
       </c>
       <c r="L11">
-        <v>11.97642116387141</v>
+        <v>8.819934639494557</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.40841170562017</v>
+        <v>13.15055180869752</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.47475764187111</v>
+        <v>19.66791059184786</v>
       </c>
       <c r="C12">
-        <v>8.249250050219793</v>
+        <v>6.609432211638657</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.42406929908644</v>
+        <v>10.01618631424971</v>
       </c>
       <c r="F12">
-        <v>43.57063433704084</v>
+        <v>35.51939660861819</v>
       </c>
       <c r="G12">
-        <v>46.47559587007488</v>
+        <v>38.51278927627646</v>
       </c>
       <c r="H12">
-        <v>18.56655413684907</v>
+        <v>12.09475551469441</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.068087280073602</v>
+        <v>5.661049752248652</v>
       </c>
       <c r="K12">
-        <v>12.86829662191687</v>
+        <v>14.78520210075355</v>
       </c>
       <c r="L12">
-        <v>11.98347178817919</v>
+        <v>8.888635412883875</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.3918137541656</v>
+        <v>13.08569450683951</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46189316107349</v>
+        <v>19.6179519839845</v>
       </c>
       <c r="C13">
-        <v>8.247678868533898</v>
+        <v>6.603448931692387</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.42323564871137</v>
+        <v>10.00284008746604</v>
       </c>
       <c r="F13">
-        <v>43.56603249504315</v>
+        <v>35.4656817445961</v>
       </c>
       <c r="G13">
-        <v>46.47312814828883</v>
+        <v>38.46359568850929</v>
       </c>
       <c r="H13">
-        <v>18.56836624909663</v>
+        <v>12.0919432886922</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.068580993021936</v>
+        <v>5.663292160470818</v>
       </c>
       <c r="K13">
-        <v>12.85952012158659</v>
+        <v>14.74473322367463</v>
       </c>
       <c r="L13">
-        <v>11.98194226007511</v>
+        <v>8.873854105846748</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.39537605723535</v>
+        <v>13.09964757562385</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.419961130383</v>
+        <v>19.45442019452636</v>
       </c>
       <c r="C14">
-        <v>8.242544745834387</v>
+        <v>6.58392400778056</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.4205663642972</v>
+        <v>9.959319418208619</v>
       </c>
       <c r="F14">
-        <v>43.55125685964919</v>
+        <v>35.29080091516587</v>
       </c>
       <c r="G14">
-        <v>46.46537488095957</v>
+        <v>38.30399725274231</v>
       </c>
       <c r="H14">
-        <v>18.57434998378625</v>
+        <v>12.08303973996713</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.070197781408826</v>
+        <v>5.670608730280593</v>
       </c>
       <c r="K14">
-        <v>12.83091863661701</v>
+        <v>14.61213451136466</v>
       </c>
       <c r="L14">
-        <v>11.9769962381622</v>
+        <v>8.825593227985047</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.40704060967877</v>
+        <v>13.14520911220723</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.39429429222531</v>
+        <v>19.35378698012832</v>
       </c>
       <c r="C15">
-        <v>8.239392154882909</v>
+        <v>6.571954924737233</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.41896937861712</v>
+        <v>9.932665726698914</v>
       </c>
       <c r="F15">
-        <v>43.54238479600085</v>
+        <v>35.18390964138916</v>
       </c>
       <c r="G15">
-        <v>46.46085214006357</v>
+        <v>38.20687720907824</v>
       </c>
       <c r="H15">
-        <v>18.57807208124978</v>
+        <v>12.07779024702443</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.071193250137586</v>
+        <v>5.675093271473688</v>
       </c>
       <c r="K15">
-        <v>12.81341585486541</v>
+        <v>14.53043565930348</v>
       </c>
       <c r="L15">
-        <v>11.97399907652178</v>
+        <v>8.795989899836602</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.41422170306085</v>
+        <v>13.17316155810044</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.24751977032933</v>
+        <v>18.76998496349187</v>
       </c>
       <c r="C16">
-        <v>8.221207021130885</v>
+        <v>6.503212732732471</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.41040237692073</v>
+        <v>9.780014389907175</v>
       </c>
       <c r="F16">
-        <v>43.49428509292749</v>
+        <v>34.57492706313757</v>
       </c>
       <c r="G16">
-        <v>46.43840547206575</v>
+        <v>37.66006307217099</v>
       </c>
       <c r="H16">
-        <v>18.60027347771934</v>
+        <v>12.0507739481491</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.07697680127179</v>
+        <v>5.70084425747663</v>
       </c>
       <c r="K16">
-        <v>12.71339281754821</v>
+        <v>14.05487284433125</v>
       </c>
       <c r="L16">
-        <v>11.95732321920748</v>
+        <v>8.625731472164649</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.45592958680066</v>
+        <v>13.33404995775823</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.15780001756944</v>
+        <v>18.40551933291989</v>
       </c>
       <c r="C17">
-        <v>8.20994550012257</v>
+        <v>6.460899259043125</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.40567043590927</v>
+        <v>9.6864812491901</v>
       </c>
       <c r="F17">
-        <v>43.46723243898893</v>
+        <v>34.20460001333262</v>
       </c>
       <c r="G17">
-        <v>46.42773426595279</v>
+        <v>37.33325241253263</v>
       </c>
       <c r="H17">
-        <v>18.61467061487683</v>
+        <v>12.03686845517838</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.080595413016002</v>
+        <v>5.716695305600249</v>
       </c>
       <c r="K17">
-        <v>12.65230877044553</v>
+        <v>13.75649379569562</v>
       </c>
       <c r="L17">
-        <v>11.94754191814107</v>
+        <v>8.520772930647663</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.48201298779082</v>
+        <v>13.43339899018707</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.10633109930768</v>
+        <v>18.19357808357142</v>
       </c>
       <c r="C18">
-        <v>8.20342961659224</v>
+        <v>6.436506990094633</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.40314192322061</v>
+        <v>9.632738752276621</v>
       </c>
       <c r="F18">
-        <v>43.45257756691859</v>
+        <v>33.99283090661687</v>
       </c>
       <c r="G18">
-        <v>46.42273580778163</v>
+        <v>37.14843530289924</v>
       </c>
       <c r="H18">
-        <v>18.62323695433918</v>
+        <v>12.0298241739604</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.082702750712043</v>
+        <v>5.725834946822968</v>
       </c>
       <c r="K18">
-        <v>12.61728789627072</v>
+        <v>13.58241510186915</v>
       </c>
       <c r="L18">
-        <v>11.94208204183072</v>
+        <v>8.460231502415642</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.49719845725474</v>
+        <v>13.4907886944561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.08892952750705</v>
+        <v>18.12142314533017</v>
       </c>
       <c r="C19">
-        <v>8.201216850154083</v>
+        <v>6.428238593059839</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.40231905839531</v>
+        <v>9.614553293625155</v>
       </c>
       <c r="F19">
-        <v>43.44777139101421</v>
+        <v>33.92134469214196</v>
       </c>
       <c r="G19">
-        <v>46.42123912105732</v>
+        <v>37.08639945130813</v>
       </c>
       <c r="H19">
-        <v>18.62618638596992</v>
+        <v>12.02760040320355</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.083420732229676</v>
+        <v>5.728933602461568</v>
       </c>
       <c r="K19">
-        <v>12.60545092128353</v>
+        <v>13.52305086294074</v>
       </c>
       <c r="L19">
-        <v>11.94026204948383</v>
+        <v>8.439705219008291</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.50237145827394</v>
+        <v>13.51026301499419</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.16733720450987</v>
+        <v>18.44455676682416</v>
       </c>
       <c r="C20">
-        <v>8.211148303640323</v>
+        <v>6.465409210011481</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.40615418260468</v>
+        <v>9.69643260297306</v>
       </c>
       <c r="F20">
-        <v>43.47001862868672</v>
+        <v>34.24389511574244</v>
       </c>
       <c r="G20">
-        <v>46.42875232343934</v>
+        <v>37.36771489688383</v>
       </c>
       <c r="H20">
-        <v>18.61310846432399</v>
+        <v>12.03824940618575</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.080207515385636</v>
+        <v>5.715005664060437</v>
       </c>
       <c r="K20">
-        <v>12.65879982616447</v>
+        <v>13.78851080361612</v>
       </c>
       <c r="L20">
-        <v>11.94856599200144</v>
+        <v>8.53196411771766</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.47921743473946</v>
+        <v>13.42279775996223</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.43227398201117</v>
+        <v>19.50255044095868</v>
       </c>
       <c r="C21">
-        <v>8.244054387353039</v>
+        <v>6.589660915205305</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.42134247721192</v>
+        <v>9.972101733740777</v>
       </c>
       <c r="F21">
-        <v>43.55555965376859</v>
+        <v>35.34212023830563</v>
       </c>
       <c r="G21">
-        <v>46.4676050355093</v>
+        <v>38.35074198493154</v>
       </c>
       <c r="H21">
-        <v>18.57258055976061</v>
+        <v>12.08561222333003</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.069721820837616</v>
+        <v>5.668459082583114</v>
       </c>
       <c r="K21">
-        <v>12.83931621960121</v>
+        <v>14.65118152952945</v>
       </c>
       <c r="L21">
-        <v>11.97844225516726</v>
+        <v>8.839777475624372</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.40360690197343</v>
+        <v>13.13181731764298</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.60626604139435</v>
+        <v>20.21736870791263</v>
       </c>
       <c r="C22">
-        <v>8.265212251908848</v>
+        <v>6.670434556005005</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.43297297824697</v>
+        <v>10.15248117225502</v>
       </c>
       <c r="F22">
-        <v>43.61946030915885</v>
+        <v>36.07017941697811</v>
       </c>
       <c r="G22">
-        <v>46.50313030102165</v>
+        <v>39.02173643951093</v>
       </c>
       <c r="H22">
-        <v>18.54863892381332</v>
+        <v>12.12563318773041</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.063099007687445</v>
+        <v>5.638177101126952</v>
       </c>
       <c r="K22">
-        <v>12.95806098612404</v>
+        <v>15.19352411568468</v>
       </c>
       <c r="L22">
-        <v>11.99942225132351</v>
+        <v>9.03910539464021</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.35581303893983</v>
+        <v>12.94366710286475</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.51334388756051</v>
+        <v>19.82769360960906</v>
       </c>
       <c r="C23">
-        <v>8.253951993044186</v>
+        <v>6.627360615565848</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.42661045220261</v>
+        <v>10.05620237637899</v>
       </c>
       <c r="F23">
-        <v>43.58462723977545</v>
+        <v>35.68068685364917</v>
       </c>
       <c r="G23">
-        <v>46.48324358275296</v>
+        <v>38.66098275337858</v>
       </c>
       <c r="H23">
-        <v>18.56118393539445</v>
+        <v>12.10341546561039</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.066612732603973</v>
+        <v>5.654329605648151</v>
       </c>
       <c r="K23">
-        <v>12.89462606176451</v>
+        <v>14.90600771612944</v>
       </c>
       <c r="L23">
-        <v>11.98809301753055</v>
+        <v>8.932903042708872</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.38117347048636</v>
+        <v>13.04390994181217</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.16302508879867</v>
+        <v>18.42691543125454</v>
       </c>
       <c r="C24">
-        <v>8.210604645357314</v>
+        <v>6.463370466340679</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.40593488267869</v>
+        <v>9.691933496316631</v>
       </c>
       <c r="F24">
-        <v>43.46875619420293</v>
+        <v>34.22612625095319</v>
       </c>
       <c r="G24">
-        <v>46.42828851914946</v>
+        <v>37.35212484792107</v>
       </c>
       <c r="H24">
-        <v>18.61381381164541</v>
+        <v>12.03762212496505</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.080382799934592</v>
+        <v>5.715769467288435</v>
       </c>
       <c r="K24">
-        <v>12.65586491453749</v>
+        <v>13.7740438200045</v>
       </c>
       <c r="L24">
-        <v>11.94810249858666</v>
+        <v>8.526905199350715</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.48048071301505</v>
+        <v>13.42758972506094</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.79054966949834</v>
+        <v>16.83933729498688</v>
       </c>
       <c r="C25">
-        <v>8.162376192228667</v>
+        <v>6.284374499126545</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.39102605503928</v>
+        <v>9.301324644142628</v>
       </c>
       <c r="F25">
-        <v>43.37839825709851</v>
+        <v>32.70482515915002</v>
       </c>
       <c r="G25">
-        <v>46.41256112257678</v>
+        <v>36.06065839766463</v>
       </c>
       <c r="H25">
-        <v>18.68149593512384</v>
+        <v>12.00279738890694</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.096231264419281</v>
+        <v>5.782933961878314</v>
       </c>
       <c r="K25">
-        <v>12.40278655380349</v>
+        <v>12.45880098122969</v>
       </c>
       <c r="L25">
-        <v>11.91132761316164</v>
+        <v>8.082644419947886</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.59460047149297</v>
+        <v>13.85098476920874</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.59732259941754</v>
+        <v>20.31444808969255</v>
       </c>
       <c r="C2">
-        <v>6.150545895400471</v>
+        <v>16.23409333661919</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.017355068841018</v>
+        <v>14.86846153858298</v>
       </c>
       <c r="F2">
-        <v>31.62978731413036</v>
+        <v>32.50808948223149</v>
       </c>
       <c r="G2">
-        <v>35.21028413052837</v>
+        <v>28.10070777920597</v>
       </c>
       <c r="H2">
-        <v>12.0052376495659</v>
+        <v>1.796986263296619</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.830548081994882</v>
       </c>
       <c r="J2">
-        <v>5.833458222958231</v>
+        <v>9.738095975100302</v>
       </c>
       <c r="K2">
-        <v>11.40703522886077</v>
+        <v>13.89883544701923</v>
       </c>
       <c r="L2">
-        <v>7.752121516864861</v>
+        <v>5.316019585281333</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.17190911911737</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.23365903730255</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.71231058880348</v>
+        <v>18.99612214134924</v>
       </c>
       <c r="C3">
-        <v>6.05851266854225</v>
+        <v>15.21401848324352</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.828092866108856</v>
+        <v>14.23826713490053</v>
       </c>
       <c r="F3">
-        <v>30.93163354990373</v>
+        <v>31.29688842771043</v>
       </c>
       <c r="G3">
-        <v>34.6948155522764</v>
+        <v>27.12788649010972</v>
       </c>
       <c r="H3">
-        <v>12.02294794202512</v>
+        <v>2.070921544143367</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.62838566898193</v>
       </c>
       <c r="J3">
-        <v>5.868503648518315</v>
+        <v>9.684994185070444</v>
       </c>
       <c r="K3">
-        <v>10.6411791468657</v>
+        <v>14.00682388951984</v>
       </c>
       <c r="L3">
-        <v>7.527220195885401</v>
+        <v>5.276557150913754</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.39560229653863</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.19106473817563</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.14870580169665</v>
+        <v>18.13804509528472</v>
       </c>
       <c r="C4">
-        <v>6.00133412393634</v>
+        <v>14.55717492563446</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.713782588959264</v>
+        <v>13.83828910330691</v>
       </c>
       <c r="F4">
-        <v>30.51873620507671</v>
+        <v>30.53702238360128</v>
       </c>
       <c r="G4">
-        <v>34.40754707107374</v>
+        <v>26.52913142056803</v>
       </c>
       <c r="H4">
-        <v>12.04127151031231</v>
+        <v>2.244823341159405</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.501199035820444</v>
       </c>
       <c r="J4">
-        <v>5.890459633105046</v>
+        <v>9.656444510954373</v>
       </c>
       <c r="K4">
-        <v>10.1561950565813</v>
+        <v>14.07888243072938</v>
       </c>
       <c r="L4">
-        <v>7.389150728454154</v>
+        <v>5.250839671659499</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.53615873639351</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.52097573861389</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.91417440474574</v>
+        <v>17.77447934540037</v>
       </c>
       <c r="C5">
-        <v>5.977864753557384</v>
+        <v>14.29183775433913</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.667727849625077</v>
+        <v>13.67776474614074</v>
       </c>
       <c r="F5">
-        <v>30.35455721933658</v>
+        <v>30.21180631455087</v>
       </c>
       <c r="G5">
-        <v>34.297700270703</v>
+        <v>26.25094804046551</v>
       </c>
       <c r="H5">
-        <v>12.05054348809601</v>
+        <v>2.317331000061682</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.499887526978887</v>
       </c>
       <c r="J5">
-        <v>5.899522631801246</v>
+        <v>9.639677668457695</v>
       </c>
       <c r="K5">
-        <v>9.990133339087915</v>
+        <v>14.09821465907167</v>
       </c>
       <c r="L5">
-        <v>7.332967306453379</v>
+        <v>5.239442704504071</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.59426427961693</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.24605036221324</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.87494472643095</v>
+        <v>17.71137118858684</v>
       </c>
       <c r="C6">
-        <v>5.973957505041452</v>
+        <v>14.25954635168564</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.660113837768527</v>
+        <v>13.65782991380003</v>
       </c>
       <c r="F6">
-        <v>30.32754499989518</v>
+        <v>30.14306817306504</v>
       </c>
       <c r="G6">
-        <v>34.27989190069764</v>
+        <v>26.16304996636756</v>
       </c>
       <c r="H6">
-        <v>12.05219014358462</v>
+        <v>2.329678178754933</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.513976590916271</v>
       </c>
       <c r="J6">
-        <v>5.901034685749829</v>
+        <v>9.629480670001501</v>
       </c>
       <c r="K6">
-        <v>9.962359848605718</v>
+        <v>14.08760857716334</v>
       </c>
       <c r="L6">
-        <v>7.323645274486329</v>
+        <v>5.236870193522369</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.60396325208218</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>16.20671774375464</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.14556216807236</v>
+        <v>18.12786685382391</v>
       </c>
       <c r="C7">
-        <v>6.001018290383302</v>
+        <v>14.58627650214813</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.713159275552201</v>
+        <v>13.85470859978048</v>
       </c>
       <c r="F7">
-        <v>30.51650536579061</v>
+        <v>30.49352581838117</v>
       </c>
       <c r="G7">
-        <v>34.4060366069774</v>
+        <v>26.41276299393201</v>
       </c>
       <c r="H7">
-        <v>12.04138933617991</v>
+        <v>2.246380136968847</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.502846737039969</v>
       </c>
       <c r="J7">
-        <v>5.890581383967104</v>
+        <v>9.635862526457849</v>
       </c>
       <c r="K7">
-        <v>10.15396895855754</v>
+        <v>14.04112679712333</v>
       </c>
       <c r="L7">
-        <v>7.388392588176126</v>
+        <v>5.248919864252529</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.5369389895553</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.5353541694517</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.29648239072937</v>
+        <v>19.8634528449717</v>
       </c>
       <c r="C8">
-        <v>6.118951423867039</v>
+        <v>15.92874938086529</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.951733837888943</v>
+        <v>14.67722878210387</v>
       </c>
       <c r="F8">
-        <v>31.38586115953424</v>
+        <v>32.04475171714569</v>
       </c>
       <c r="G8">
-        <v>35.02641000226712</v>
+        <v>27.62302786683366</v>
       </c>
       <c r="H8">
-        <v>12.00975651368786</v>
+        <v>1.890996356516234</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.763743635246348</v>
       </c>
       <c r="J8">
-        <v>5.845454485939498</v>
+        <v>9.692290703634573</v>
       </c>
       <c r="K8">
-        <v>11.14844043958901</v>
+        <v>13.88439697261608</v>
       </c>
       <c r="L8">
-        <v>7.67461536048615</v>
+        <v>5.300506651154815</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.2483855665431</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.90263481235564</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.385696147044</v>
+        <v>22.89154264179803</v>
       </c>
       <c r="C9">
-        <v>6.344973750244938</v>
+        <v>18.26735104556122</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.432454056536793</v>
+        <v>16.15220296755057</v>
       </c>
       <c r="F9">
-        <v>33.21056756419916</v>
+        <v>35.00913670621119</v>
       </c>
       <c r="G9">
-        <v>36.47985964974351</v>
+        <v>30.16386416231451</v>
       </c>
       <c r="H9">
-        <v>12.0099680955133</v>
+        <v>1.876229594294298</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.249731386915326</v>
       </c>
       <c r="J9">
-        <v>5.760162314140165</v>
+        <v>9.872854533314399</v>
       </c>
       <c r="K9">
-        <v>12.91464312793448</v>
+        <v>13.69561037428434</v>
       </c>
       <c r="L9">
-        <v>8.232973845660384</v>
+        <v>5.392899135400006</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.70700170011049</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.31285364979706</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.81125894422202</v>
+        <v>24.9160941274042</v>
       </c>
       <c r="C10">
-        <v>6.508033749253469</v>
+        <v>19.84676518786171</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.790693666004778</v>
+        <v>16.91810598806637</v>
       </c>
       <c r="F10">
-        <v>34.61734856301069</v>
+        <v>36.68922253084816</v>
       </c>
       <c r="G10">
-        <v>37.69778352804952</v>
+        <v>31.63392620587575</v>
       </c>
       <c r="H10">
-        <v>12.05249183240513</v>
+        <v>2.303400429478486</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.590514806609972</v>
       </c>
       <c r="J10">
-        <v>5.699038394977189</v>
+        <v>9.954371039064782</v>
       </c>
       <c r="K10">
-        <v>14.08858820884352</v>
+        <v>13.46690242025145</v>
       </c>
       <c r="L10">
-        <v>8.637683505288738</v>
+        <v>5.443878960718544</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.32274638881874</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.7991005355072</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.4352036287889</v>
+        <v>26.06332361118493</v>
       </c>
       <c r="C11">
-        <v>6.58163572212881</v>
+        <v>20.52401876679069</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.954222157022413</v>
+        <v>15.15793446567456</v>
       </c>
       <c r="F11">
-        <v>35.27034643627665</v>
+        <v>34.13667220944349</v>
       </c>
       <c r="G11">
-        <v>38.28538708831585</v>
+        <v>29.38368744288416</v>
       </c>
       <c r="H11">
-        <v>12.08202381780145</v>
+        <v>3.095343742646573</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.709660190895957</v>
       </c>
       <c r="J11">
-        <v>5.67146613208927</v>
+        <v>9.407957793886485</v>
       </c>
       <c r="K11">
-        <v>14.59653960141451</v>
+        <v>12.39001182874707</v>
       </c>
       <c r="L11">
-        <v>8.819934639494557</v>
+        <v>5.465972584505821</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.15055180869752</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>21.26180526068952</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.66791059184786</v>
+        <v>26.63107783528752</v>
       </c>
       <c r="C12">
-        <v>6.609432211638657</v>
+        <v>20.73555133128725</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.01618631424971</v>
+        <v>13.62001734233806</v>
       </c>
       <c r="F12">
-        <v>35.51939660861819</v>
+        <v>31.65845853091297</v>
       </c>
       <c r="G12">
-        <v>38.51278927627646</v>
+        <v>27.28800814934052</v>
       </c>
       <c r="H12">
-        <v>12.09475551469441</v>
+        <v>4.284919353320858</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.739801352861799</v>
       </c>
       <c r="J12">
-        <v>5.661049752248652</v>
+        <v>8.955395203419972</v>
       </c>
       <c r="K12">
-        <v>14.78520210075355</v>
+        <v>11.61141035151229</v>
       </c>
       <c r="L12">
-        <v>8.888635412883875</v>
+        <v>5.581160903682105</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.08569450683951</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>20.4666769593701</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.6179519839845</v>
+        <v>26.79972576100534</v>
       </c>
       <c r="C13">
-        <v>6.603448931692387</v>
+        <v>20.64661500724917</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.00284008746604</v>
+        <v>12.2016180547009</v>
       </c>
       <c r="F13">
-        <v>35.4656817445961</v>
+        <v>28.98916805091912</v>
       </c>
       <c r="G13">
-        <v>38.46359568850929</v>
+        <v>24.97493678204658</v>
       </c>
       <c r="H13">
-        <v>12.0919432886922</v>
+        <v>5.563502425092177</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.705758565514516</v>
       </c>
       <c r="J13">
-        <v>5.663292160470818</v>
+        <v>8.515586628651761</v>
       </c>
       <c r="K13">
-        <v>14.74473322367463</v>
+        <v>10.9689312029275</v>
       </c>
       <c r="L13">
-        <v>8.873854105846748</v>
+        <v>5.763237863755908</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.09964757562385</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>19.4228239437342</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.45442019452636</v>
+        <v>26.73903689800373</v>
       </c>
       <c r="C14">
-        <v>6.58392400778056</v>
+        <v>20.45531330485016</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.959319418208619</v>
+        <v>11.32066589519396</v>
       </c>
       <c r="F14">
-        <v>35.29080091516587</v>
+        <v>27.01159830588381</v>
       </c>
       <c r="G14">
-        <v>38.30399725274231</v>
+        <v>23.20607140416539</v>
       </c>
       <c r="H14">
-        <v>12.08303973996713</v>
+        <v>6.49013902001913</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.653869940763482</v>
       </c>
       <c r="J14">
-        <v>5.670608730280593</v>
+        <v>8.210863601525235</v>
       </c>
       <c r="K14">
-        <v>14.61213451136466</v>
+        <v>10.58992475933891</v>
       </c>
       <c r="L14">
-        <v>8.825593227985047</v>
+        <v>5.928511994034375</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.14520911220723</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.56900020318102</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.35378698012832</v>
+        <v>26.63673511479239</v>
       </c>
       <c r="C15">
-        <v>6.571954924737233</v>
+        <v>20.35372565428987</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.932665726698914</v>
+        <v>11.11733354215381</v>
       </c>
       <c r="F15">
-        <v>35.18390964138916</v>
+        <v>26.47756172569239</v>
       </c>
       <c r="G15">
-        <v>38.20687720907824</v>
+        <v>22.69135993890035</v>
       </c>
       <c r="H15">
-        <v>12.07779024702443</v>
+        <v>6.700441576077624</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.628027886187847</v>
       </c>
       <c r="J15">
-        <v>5.675093271473688</v>
+        <v>8.133862902377995</v>
       </c>
       <c r="K15">
-        <v>14.53043565930348</v>
+        <v>10.51573631606817</v>
       </c>
       <c r="L15">
-        <v>8.795989899836602</v>
+        <v>5.969930686424185</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.17316155810044</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.31164943476028</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.76998496349187</v>
+        <v>25.79161788690332</v>
       </c>
       <c r="C16">
-        <v>6.503212732732471</v>
+        <v>19.73681306751124</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.780014389907175</v>
+        <v>11.00908305978001</v>
       </c>
       <c r="F16">
-        <v>34.57492706313757</v>
+        <v>26.16706346315211</v>
       </c>
       <c r="G16">
-        <v>37.66006307217099</v>
+        <v>22.32004308324132</v>
       </c>
       <c r="H16">
-        <v>12.0507739481491</v>
+        <v>6.441823924908265</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.491156804740397</v>
       </c>
       <c r="J16">
-        <v>5.70084425747663</v>
+        <v>8.172789784279159</v>
       </c>
       <c r="K16">
-        <v>14.05487284433125</v>
+        <v>10.74356719623555</v>
       </c>
       <c r="L16">
-        <v>8.625731472164649</v>
+        <v>5.905875227499285</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.33404995775823</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.84300364743931</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.40551933291989</v>
+        <v>25.16112718058173</v>
       </c>
       <c r="C17">
-        <v>6.460899259043125</v>
+        <v>19.36120838508926</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.6864812491901</v>
+        <v>11.37789159973637</v>
       </c>
       <c r="F17">
-        <v>34.20460001333262</v>
+        <v>27.00470420944902</v>
       </c>
       <c r="G17">
-        <v>37.33325241253263</v>
+        <v>23.01355961504931</v>
       </c>
       <c r="H17">
-        <v>12.03686845517838</v>
+        <v>5.693107399423286</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.413645318539011</v>
       </c>
       <c r="J17">
-        <v>5.716695305600249</v>
+        <v>8.363597662773214</v>
       </c>
       <c r="K17">
-        <v>13.75649379569562</v>
+        <v>11.10511579446241</v>
       </c>
       <c r="L17">
-        <v>8.520772930647663</v>
+        <v>5.761139606319059</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.43339899018707</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.95513691368086</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.19357808357142</v>
+        <v>24.66002249974373</v>
       </c>
       <c r="C18">
-        <v>6.436506990094633</v>
+        <v>19.13650199191741</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.632738752276621</v>
+        <v>12.3423385668926</v>
       </c>
       <c r="F18">
-        <v>33.99283090661687</v>
+        <v>28.96352935804627</v>
       </c>
       <c r="G18">
-        <v>37.14843530289924</v>
+        <v>24.77105329387454</v>
       </c>
       <c r="H18">
-        <v>12.0298241739604</v>
+        <v>4.441331814217885</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.377592650742673</v>
       </c>
       <c r="J18">
-        <v>5.725834946822968</v>
+        <v>8.722538962172949</v>
       </c>
       <c r="K18">
-        <v>13.58241510186915</v>
+        <v>11.6731139803587</v>
       </c>
       <c r="L18">
-        <v>8.460231502415642</v>
+        <v>5.571295517659087</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.4907886944561</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>18.57093218988281</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.12142314533017</v>
+        <v>24.30178952509634</v>
       </c>
       <c r="C19">
-        <v>6.428238593059839</v>
+        <v>19.10373150654573</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.614553293625155</v>
+        <v>13.89482384148073</v>
       </c>
       <c r="F19">
-        <v>33.92134469214196</v>
+        <v>31.61945698529988</v>
       </c>
       <c r="G19">
-        <v>37.08639945130813</v>
+        <v>27.04921968065176</v>
       </c>
       <c r="H19">
-        <v>12.02760040320355</v>
+        <v>3.082481060528748</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.38627181049508</v>
       </c>
       <c r="J19">
-        <v>5.728933602461568</v>
+        <v>9.162001640934978</v>
       </c>
       <c r="K19">
-        <v>13.52305086294074</v>
+        <v>12.35072425234161</v>
       </c>
       <c r="L19">
-        <v>8.439705219008291</v>
+        <v>5.431611431030761</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.51026301499419</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>19.559403049401</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44455676682416</v>
+        <v>24.38888244644547</v>
       </c>
       <c r="C20">
-        <v>6.465409210011481</v>
+        <v>19.52094395369035</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.69643260297306</v>
+        <v>16.7563562595035</v>
       </c>
       <c r="F20">
-        <v>34.24389511574244</v>
+        <v>36.13426089395536</v>
       </c>
       <c r="G20">
-        <v>37.36771489688383</v>
+        <v>30.93633060958715</v>
       </c>
       <c r="H20">
-        <v>12.03824940618575</v>
+        <v>2.189264544740897</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.508185169881201</v>
       </c>
       <c r="J20">
-        <v>5.715005664060437</v>
+        <v>9.868143099131965</v>
       </c>
       <c r="K20">
-        <v>13.78851080361612</v>
+        <v>13.40142003596763</v>
       </c>
       <c r="L20">
-        <v>8.53196411771766</v>
+        <v>5.426145331156344</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.42279775996223</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.45567412240302</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.50255044095868</v>
+        <v>25.82269819422602</v>
       </c>
       <c r="C21">
-        <v>6.589660915205305</v>
+        <v>20.67508501681968</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.972101733740777</v>
+        <v>17.70836232760884</v>
       </c>
       <c r="F21">
-        <v>35.34212023830563</v>
+        <v>38.00069079407529</v>
       </c>
       <c r="G21">
-        <v>38.35074198493154</v>
+        <v>32.63148312193919</v>
       </c>
       <c r="H21">
-        <v>12.08561222333003</v>
+        <v>2.538207706205408</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.771425835775414</v>
       </c>
       <c r="J21">
-        <v>5.668459082583114</v>
+        <v>10.05286999180472</v>
       </c>
       <c r="K21">
-        <v>14.65118152952945</v>
+        <v>13.43326239460845</v>
       </c>
       <c r="L21">
-        <v>8.839777475624372</v>
+        <v>5.47826283741229</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.13181731764298</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.75388395486362</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.21736870791263</v>
+        <v>26.74071614409618</v>
       </c>
       <c r="C22">
-        <v>6.670434556005005</v>
+        <v>21.370800793339</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.15248117225502</v>
+        <v>18.16632525021149</v>
       </c>
       <c r="F22">
-        <v>36.07017941697811</v>
+        <v>39.04311452224824</v>
       </c>
       <c r="G22">
-        <v>39.02173643951093</v>
+        <v>33.67957304761779</v>
       </c>
       <c r="H22">
-        <v>12.12563318773041</v>
+        <v>2.753370311046541</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.937024987352912</v>
       </c>
       <c r="J22">
-        <v>5.638177101126952</v>
+        <v>10.16982690272989</v>
       </c>
       <c r="K22">
-        <v>15.19352411568468</v>
+        <v>13.45741155944075</v>
       </c>
       <c r="L22">
-        <v>9.03910539464021</v>
+        <v>5.508329078782872</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.94366710286475</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.48531287229647</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.82769360960906</v>
+        <v>26.25904158669681</v>
       </c>
       <c r="C23">
-        <v>6.627360615565848</v>
+        <v>20.97360640145341</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.05620237637899</v>
+        <v>17.90575115842253</v>
       </c>
       <c r="F23">
-        <v>35.68068685364917</v>
+        <v>38.52564647293293</v>
       </c>
       <c r="G23">
-        <v>38.66098275337858</v>
+        <v>33.22755487996788</v>
       </c>
       <c r="H23">
-        <v>12.10341546561039</v>
+        <v>2.639382207123374</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.846398934677433</v>
       </c>
       <c r="J23">
-        <v>5.654329605648151</v>
+        <v>10.12932860691622</v>
       </c>
       <c r="K23">
-        <v>14.90600771612944</v>
+        <v>13.48844812136671</v>
       </c>
       <c r="L23">
-        <v>8.932903042708872</v>
+        <v>5.494068458512072</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.04390994181217</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.08185707314495</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42691543125454</v>
+        <v>24.345771035028</v>
       </c>
       <c r="C24">
-        <v>6.463370466340679</v>
+        <v>19.46021581055081</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.691933496316631</v>
+        <v>16.91863028315328</v>
       </c>
       <c r="F24">
-        <v>34.22612625095319</v>
+        <v>36.4653504286243</v>
       </c>
       <c r="G24">
-        <v>37.35212484792107</v>
+        <v>31.33941781856898</v>
       </c>
       <c r="H24">
-        <v>12.03762212496505</v>
+        <v>2.199297485312119</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.502944750864804</v>
       </c>
       <c r="J24">
-        <v>5.715769467288435</v>
+        <v>9.951598984656339</v>
       </c>
       <c r="K24">
-        <v>13.7740438200045</v>
+        <v>13.55540559548835</v>
       </c>
       <c r="L24">
-        <v>8.526905199350715</v>
+        <v>5.435024962877068</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.42758972506094</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.52108512372392</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.83933729498688</v>
+        <v>22.10513004566447</v>
       </c>
       <c r="C25">
-        <v>6.284374499126545</v>
+        <v>17.71004426495247</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.301324644142628</v>
+        <v>15.79473768204839</v>
       </c>
       <c r="F25">
-        <v>32.70482515915002</v>
+        <v>34.16152227371178</v>
       </c>
       <c r="G25">
-        <v>36.06065839766463</v>
+        <v>29.29777829286123</v>
       </c>
       <c r="H25">
-        <v>12.00279738890694</v>
+        <v>1.707121788131383</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.124092076042658</v>
       </c>
       <c r="J25">
-        <v>5.782933961878314</v>
+        <v>9.784436016112378</v>
       </c>
       <c r="K25">
-        <v>12.45880098122969</v>
+        <v>13.67175623687934</v>
       </c>
       <c r="L25">
-        <v>8.082644419947886</v>
+        <v>5.366334059453777</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.85098476920874</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>19.71473385725869</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.31444808969255</v>
+        <v>20.2603167685388</v>
       </c>
       <c r="C2">
-        <v>16.23409333661919</v>
+        <v>16.65228496614001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.86846153858298</v>
+        <v>15.19240094039899</v>
       </c>
       <c r="F2">
-        <v>32.50808948223149</v>
+        <v>31.84145042907406</v>
       </c>
       <c r="G2">
-        <v>28.10070777920597</v>
+        <v>25.59613717571791</v>
       </c>
       <c r="H2">
-        <v>1.796986263296619</v>
+        <v>1.797467504923344</v>
       </c>
       <c r="I2">
-        <v>2.830548081994882</v>
+        <v>2.861679541572818</v>
       </c>
       <c r="J2">
-        <v>9.738095975100302</v>
+        <v>9.882179969973498</v>
       </c>
       <c r="K2">
-        <v>13.89883544701923</v>
+        <v>13.13020239795638</v>
       </c>
       <c r="L2">
-        <v>5.316019585281333</v>
+        <v>11.65542813241193</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.80859563214401</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.284579799357539</v>
       </c>
       <c r="O2">
-        <v>18.23365903730255</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.54319748024022</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.99612214134924</v>
+        <v>18.97056738911451</v>
       </c>
       <c r="C3">
-        <v>15.21401848324352</v>
+        <v>15.54435080831668</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.23826713490053</v>
+        <v>14.54299402652836</v>
       </c>
       <c r="F3">
-        <v>31.29688842771043</v>
+        <v>30.73215266144789</v>
       </c>
       <c r="G3">
-        <v>27.12788649010972</v>
+        <v>24.89004066589656</v>
       </c>
       <c r="H3">
-        <v>2.070921544143367</v>
+        <v>2.059719514133704</v>
       </c>
       <c r="I3">
-        <v>2.62838566898193</v>
+        <v>2.688216552172771</v>
       </c>
       <c r="J3">
-        <v>9.684994185070444</v>
+        <v>9.83746370425416</v>
       </c>
       <c r="K3">
-        <v>14.00682388951984</v>
+        <v>13.31468858240515</v>
       </c>
       <c r="L3">
-        <v>5.276557150913754</v>
+        <v>11.8543316549801</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.887500950639079</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.243992065232455</v>
       </c>
       <c r="O3">
-        <v>17.19106473817563</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.45954470368941</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.13804509528472</v>
+        <v>18.13114030431185</v>
       </c>
       <c r="C4">
-        <v>14.55717492563446</v>
+        <v>14.82946280077007</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.83828910330691</v>
+        <v>14.13151921010386</v>
       </c>
       <c r="F4">
-        <v>30.53702238360128</v>
+        <v>30.03661160151342</v>
       </c>
       <c r="G4">
-        <v>26.52913142056803</v>
+        <v>24.46160562669361</v>
       </c>
       <c r="H4">
-        <v>2.244823341159405</v>
+        <v>2.226296476031063</v>
       </c>
       <c r="I4">
-        <v>2.501199035820444</v>
+        <v>2.579199731900997</v>
       </c>
       <c r="J4">
-        <v>9.656444510954373</v>
+        <v>9.810656471700351</v>
       </c>
       <c r="K4">
-        <v>14.07888243072938</v>
+        <v>13.43126617118843</v>
       </c>
       <c r="L4">
-        <v>5.250839671659499</v>
+        <v>11.97752427784155</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.959775520914134</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.217669741374424</v>
       </c>
       <c r="O4">
-        <v>16.52097573861389</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.76249595282066</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.77447934540037</v>
+        <v>17.77562386112415</v>
       </c>
       <c r="C5">
-        <v>14.29183775433913</v>
+        <v>14.53870814427579</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.67776474614074</v>
+        <v>13.9659057949801</v>
       </c>
       <c r="F5">
-        <v>30.21180631455087</v>
+        <v>29.73919622834035</v>
       </c>
       <c r="G5">
-        <v>26.25094804046551</v>
+        <v>24.25748212522786</v>
       </c>
       <c r="H5">
-        <v>2.317331000061682</v>
+        <v>2.295757346280129</v>
       </c>
       <c r="I5">
-        <v>2.499887526978887</v>
+        <v>2.535065381426322</v>
       </c>
       <c r="J5">
-        <v>9.639677668457695</v>
+        <v>9.794595040376187</v>
       </c>
       <c r="K5">
-        <v>14.09821465907167</v>
+        <v>13.47000966304931</v>
       </c>
       <c r="L5">
-        <v>5.239442704504071</v>
+        <v>12.01956374153427</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.989160651892164</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.206174925192611</v>
       </c>
       <c r="O5">
-        <v>16.24605036221324</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.47561784601593</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.71137118858684</v>
+        <v>17.71405112833101</v>
       </c>
       <c r="C6">
-        <v>14.25954635168564</v>
+        <v>14.50123498088995</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.65782991380003</v>
+        <v>13.94450294832888</v>
       </c>
       <c r="F6">
-        <v>30.14306817306504</v>
+        <v>29.67657321928682</v>
       </c>
       <c r="G6">
-        <v>26.16304996636756</v>
+        <v>24.18593592816222</v>
       </c>
       <c r="H6">
-        <v>2.329678178754933</v>
+        <v>2.30757069457165</v>
       </c>
       <c r="I6">
-        <v>2.513976590916271</v>
+        <v>2.529103130186116</v>
       </c>
       <c r="J6">
-        <v>9.629480670001501</v>
+        <v>9.785476958717188</v>
       </c>
       <c r="K6">
-        <v>14.08760857716334</v>
+        <v>13.46485565434313</v>
       </c>
       <c r="L6">
-        <v>5.236870193522369</v>
+        <v>12.01627323639297</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.987268161153363</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.203742559538719</v>
       </c>
       <c r="O6">
-        <v>16.20671774375464</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.43361390502023</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.12786685382391</v>
+        <v>18.1198910380304</v>
       </c>
       <c r="C7">
-        <v>14.58627650214813</v>
+        <v>14.84268906561344</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.85470859978048</v>
+        <v>14.15865467758939</v>
       </c>
       <c r="F7">
-        <v>30.49352581838117</v>
+        <v>29.97790541441172</v>
       </c>
       <c r="G7">
-        <v>26.41276299393201</v>
+        <v>24.41691600865906</v>
       </c>
       <c r="H7">
-        <v>2.246380136968847</v>
+        <v>2.228205118606247</v>
       </c>
       <c r="I7">
-        <v>2.502846737039969</v>
+        <v>2.581188570237051</v>
       </c>
       <c r="J7">
-        <v>9.635862526457849</v>
+        <v>9.741958491511767</v>
       </c>
       <c r="K7">
-        <v>14.04112679712333</v>
+        <v>13.38598708866615</v>
       </c>
       <c r="L7">
-        <v>5.248919864252529</v>
+        <v>11.93839360811137</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.930910458425506</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.215532030340845</v>
       </c>
       <c r="O7">
-        <v>16.5353541694517</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.77988803199878</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.8634528449717</v>
+        <v>19.81449204611072</v>
       </c>
       <c r="C8">
-        <v>15.92874938086529</v>
+        <v>16.27418731142119</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.67722878210387</v>
+        <v>15.03202299831371</v>
       </c>
       <c r="F8">
-        <v>32.04475171714569</v>
+        <v>31.35597424897376</v>
       </c>
       <c r="G8">
-        <v>27.62302786683366</v>
+        <v>25.41606337817682</v>
       </c>
       <c r="H8">
-        <v>1.890996356516234</v>
+        <v>1.888807878240407</v>
       </c>
       <c r="I8">
-        <v>2.763743635246348</v>
+        <v>2.803613298738905</v>
       </c>
       <c r="J8">
-        <v>9.692290703634573</v>
+        <v>9.677936828903855</v>
       </c>
       <c r="K8">
-        <v>13.88439697261608</v>
+        <v>13.10536284829741</v>
       </c>
       <c r="L8">
-        <v>5.300506651154815</v>
+        <v>11.65350479533044</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.766547303982913</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.267351299718785</v>
       </c>
       <c r="O8">
-        <v>17.90263481235564</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.21138001046425</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.89154264179803</v>
+        <v>22.77528211665453</v>
       </c>
       <c r="C9">
-        <v>18.26735104556122</v>
+        <v>18.8069374617301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.15220296755057</v>
+        <v>16.56407643228897</v>
       </c>
       <c r="F9">
-        <v>35.00913670621119</v>
+        <v>34.06266538981836</v>
       </c>
       <c r="G9">
-        <v>30.16386416231451</v>
+        <v>27.36238080663949</v>
       </c>
       <c r="H9">
-        <v>1.876229594294298</v>
+        <v>1.850301155735374</v>
       </c>
       <c r="I9">
-        <v>3.249731386915326</v>
+        <v>3.219348926871159</v>
       </c>
       <c r="J9">
-        <v>9.872854533314399</v>
+        <v>9.771865041672902</v>
       </c>
       <c r="K9">
-        <v>13.69561037428434</v>
+        <v>12.69069400058989</v>
       </c>
       <c r="L9">
-        <v>5.392899135400006</v>
+        <v>11.1908503839139</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.717874198242932</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.362353048097781</v>
       </c>
       <c r="O9">
-        <v>20.31285364979706</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.71781781711249</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.9160941274042</v>
+        <v>24.74916712656297</v>
       </c>
       <c r="C10">
-        <v>19.84676518786171</v>
+        <v>20.43730190157758</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.91810598806637</v>
+        <v>17.41660285996409</v>
       </c>
       <c r="F10">
-        <v>36.68922253084816</v>
+        <v>35.49230074170218</v>
       </c>
       <c r="G10">
-        <v>31.63392620587575</v>
+        <v>28.80089631304441</v>
       </c>
       <c r="H10">
-        <v>2.303400429478486</v>
+        <v>2.255892725523169</v>
       </c>
       <c r="I10">
-        <v>3.590514806609972</v>
+        <v>3.508610403709971</v>
       </c>
       <c r="J10">
-        <v>9.954371039064782</v>
+        <v>9.51235973486906</v>
       </c>
       <c r="K10">
-        <v>13.46690242025145</v>
+        <v>12.23546557205585</v>
       </c>
       <c r="L10">
-        <v>5.443878960718544</v>
+        <v>10.74388305272609</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.656330938530666</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.419953506934082</v>
       </c>
       <c r="O10">
-        <v>21.7991005355072</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.27924890088051</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.06332361118493</v>
+        <v>25.88147470432427</v>
       </c>
       <c r="C11">
-        <v>20.52401876679069</v>
+        <v>20.92403495182644</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.15793446567456</v>
+        <v>15.65380965854063</v>
       </c>
       <c r="F11">
-        <v>34.13667220944349</v>
+        <v>32.84170434635499</v>
       </c>
       <c r="G11">
-        <v>29.38368744288416</v>
+        <v>27.50519598773917</v>
       </c>
       <c r="H11">
-        <v>3.095343742646573</v>
+        <v>3.053513791752985</v>
       </c>
       <c r="I11">
-        <v>3.709660190895957</v>
+        <v>3.606886274298653</v>
       </c>
       <c r="J11">
-        <v>9.407957793886485</v>
+        <v>8.536173210923268</v>
       </c>
       <c r="K11">
-        <v>12.39001182874707</v>
+        <v>11.21715594557445</v>
       </c>
       <c r="L11">
-        <v>5.465972584505821</v>
+        <v>10.05188043004079</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.874307775717995</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.503444481831639</v>
       </c>
       <c r="O11">
-        <v>21.26180526068952</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>21.74634848914341</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.63107783528752</v>
+        <v>26.45075203216788</v>
       </c>
       <c r="C12">
-        <v>20.73555133128725</v>
+        <v>21.00126751474274</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.62001734233806</v>
+        <v>14.03308129879089</v>
       </c>
       <c r="F12">
-        <v>31.65845853091297</v>
+        <v>30.38936824542206</v>
       </c>
       <c r="G12">
-        <v>27.28800814934052</v>
+        <v>26.02363377791361</v>
       </c>
       <c r="H12">
-        <v>4.284919353320858</v>
+        <v>4.254287896612401</v>
       </c>
       <c r="I12">
-        <v>3.739801352861799</v>
+        <v>3.629803266641581</v>
       </c>
       <c r="J12">
-        <v>8.955395203419972</v>
+        <v>7.996484419840616</v>
       </c>
       <c r="K12">
-        <v>11.61141035151229</v>
+        <v>10.59160889823423</v>
       </c>
       <c r="L12">
-        <v>5.581160903682105</v>
+        <v>9.671916123889137</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.315257319530159</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.666775314704475</v>
       </c>
       <c r="O12">
-        <v>20.4666769593701</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>20.92816449316933</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.79972576100534</v>
+        <v>26.63733995787196</v>
       </c>
       <c r="C13">
-        <v>20.64661500724917</v>
+        <v>20.83175998657178</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.2016180547009</v>
+        <v>12.45052156181526</v>
       </c>
       <c r="F13">
-        <v>28.98916805091912</v>
+        <v>27.88847577528869</v>
       </c>
       <c r="G13">
-        <v>24.97493678204658</v>
+        <v>23.98595556313819</v>
       </c>
       <c r="H13">
-        <v>5.563502425092177</v>
+        <v>5.542209816332845</v>
       </c>
       <c r="I13">
-        <v>3.705758565514516</v>
+        <v>3.60138115328206</v>
       </c>
       <c r="J13">
-        <v>8.515586628651761</v>
+        <v>7.781116093265291</v>
       </c>
       <c r="K13">
-        <v>10.9689312029275</v>
+        <v>10.20357173560641</v>
       </c>
       <c r="L13">
-        <v>5.763237863755908</v>
+        <v>9.460873694410877</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.89083011915229</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.876378375616833</v>
       </c>
       <c r="O13">
-        <v>19.4228239437342</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>19.82622906461833</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.73903689800373</v>
+        <v>26.59676733214125</v>
       </c>
       <c r="C14">
-        <v>20.45531330485016</v>
+        <v>20.60560788119403</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.32066589519396</v>
+        <v>11.43017804654624</v>
       </c>
       <c r="F14">
-        <v>27.01159830588381</v>
+        <v>26.09258928150983</v>
       </c>
       <c r="G14">
-        <v>23.20607140416539</v>
+        <v>22.26627307119093</v>
       </c>
       <c r="H14">
-        <v>6.49013902001913</v>
+        <v>6.47408646413913</v>
       </c>
       <c r="I14">
-        <v>3.653869940763482</v>
+        <v>3.5594983630399</v>
       </c>
       <c r="J14">
-        <v>8.210863601525235</v>
+        <v>7.749505266365632</v>
       </c>
       <c r="K14">
-        <v>10.58992475933891</v>
+        <v>10.0319102079109</v>
       </c>
       <c r="L14">
-        <v>5.928511994034375</v>
+        <v>9.375300084045531</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.658525223787295</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.045922245639879</v>
       </c>
       <c r="O14">
-        <v>18.56900020318102</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.91497568275656</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.63673511479239</v>
+        <v>26.50288338478285</v>
       </c>
       <c r="C15">
-        <v>20.35372565428987</v>
+        <v>20.5043014180523</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.11733354215381</v>
+        <v>11.18796536995185</v>
       </c>
       <c r="F15">
-        <v>26.47756172569239</v>
+        <v>25.63034241660245</v>
       </c>
       <c r="G15">
-        <v>22.69135993890035</v>
+        <v>21.70480612803558</v>
       </c>
       <c r="H15">
-        <v>6.700441576077624</v>
+        <v>6.685861672420111</v>
       </c>
       <c r="I15">
-        <v>3.628027886187847</v>
+        <v>3.539354636101248</v>
       </c>
       <c r="J15">
-        <v>8.133862902377995</v>
+        <v>7.788653090094701</v>
       </c>
       <c r="K15">
-        <v>10.51573631606817</v>
+        <v>10.02214778570917</v>
       </c>
       <c r="L15">
-        <v>5.969930686424185</v>
+        <v>9.373336254996561</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.621669758494876</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.083633356845691</v>
       </c>
       <c r="O15">
-        <v>18.31164943476028</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.63609678745118</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.79161788690332</v>
+        <v>25.6876047079128</v>
       </c>
       <c r="C16">
-        <v>19.73681306751124</v>
+        <v>19.96588932270105</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.00908305978001</v>
+        <v>11.03824839275687</v>
       </c>
       <c r="F16">
-        <v>26.16706346315211</v>
+        <v>25.53843485383057</v>
       </c>
       <c r="G16">
-        <v>22.32004308324132</v>
+        <v>20.83105209927108</v>
       </c>
       <c r="H16">
-        <v>6.441823924908265</v>
+        <v>6.449816501445564</v>
       </c>
       <c r="I16">
-        <v>3.491156804740397</v>
+        <v>3.429008735680767</v>
       </c>
       <c r="J16">
-        <v>8.172789784279159</v>
+        <v>8.246879076566977</v>
       </c>
       <c r="K16">
-        <v>10.74356719623555</v>
+        <v>10.35695609566625</v>
       </c>
       <c r="L16">
-        <v>5.905875227499285</v>
+        <v>9.578339180631366</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.843829272482454</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.98903189885041</v>
       </c>
       <c r="O16">
-        <v>17.84300364743931</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.10909081817086</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.16112718058173</v>
+        <v>25.06727921555173</v>
       </c>
       <c r="C17">
-        <v>19.36120838508926</v>
+        <v>19.6548968565774</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.37789159973637</v>
+        <v>11.43794039249585</v>
       </c>
       <c r="F17">
-        <v>27.00470420944902</v>
+        <v>26.42420839526516</v>
       </c>
       <c r="G17">
-        <v>23.01355961504931</v>
+        <v>21.19561182746634</v>
       </c>
       <c r="H17">
-        <v>5.693107399423286</v>
+        <v>5.701237161090357</v>
       </c>
       <c r="I17">
-        <v>3.413645318539011</v>
+        <v>3.365821585576471</v>
       </c>
       <c r="J17">
-        <v>8.363597662773214</v>
+        <v>8.584771877051537</v>
       </c>
       <c r="K17">
-        <v>11.10511579446241</v>
+        <v>10.69742443074299</v>
       </c>
       <c r="L17">
-        <v>5.761139606319059</v>
+        <v>9.794470643530701</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.113078758513221</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.826929860505898</v>
       </c>
       <c r="O17">
-        <v>17.95513691368086</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>18.2136709971871</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.66002249974373</v>
+        <v>24.56253335501203</v>
       </c>
       <c r="C18">
-        <v>19.13650199191741</v>
+        <v>19.51342383378417</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.3423385668926</v>
+        <v>12.48051832587555</v>
       </c>
       <c r="F18">
-        <v>28.96352935804627</v>
+        <v>28.32170006512846</v>
       </c>
       <c r="G18">
-        <v>24.77105329387454</v>
+        <v>22.60683269135531</v>
       </c>
       <c r="H18">
-        <v>4.441331814217885</v>
+        <v>4.42955732495319</v>
       </c>
       <c r="I18">
-        <v>3.377592650742673</v>
+        <v>3.334721541474719</v>
       </c>
       <c r="J18">
-        <v>8.722538962172949</v>
+        <v>8.945659702893039</v>
       </c>
       <c r="K18">
-        <v>11.6731139803587</v>
+        <v>11.1444811389897</v>
       </c>
       <c r="L18">
-        <v>5.571295517659087</v>
+        <v>10.08711559051035</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.499500314311396</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.621336809409992</v>
       </c>
       <c r="O18">
-        <v>18.57093218988281</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>18.85859184484434</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.30178952509634</v>
+        <v>24.1916029035255</v>
       </c>
       <c r="C19">
-        <v>19.10373150654573</v>
+        <v>19.57638065004853</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.89482384148073</v>
+        <v>14.13739320955336</v>
       </c>
       <c r="F19">
-        <v>31.61945698529988</v>
+        <v>30.85380207413117</v>
       </c>
       <c r="G19">
-        <v>27.04921968065176</v>
+        <v>24.51766009598354</v>
       </c>
       <c r="H19">
-        <v>3.082481060528748</v>
+        <v>3.064051471699997</v>
       </c>
       <c r="I19">
-        <v>3.38627181049508</v>
+        <v>3.342974713714587</v>
       </c>
       <c r="J19">
-        <v>9.162001640934978</v>
+        <v>9.308741846510513</v>
       </c>
       <c r="K19">
-        <v>12.35072425234161</v>
+        <v>11.63985770928107</v>
       </c>
       <c r="L19">
-        <v>5.431611431030761</v>
+        <v>10.41578657356493</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.942469961416688</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.458891781335863</v>
       </c>
       <c r="O19">
-        <v>19.559403049401</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>19.89682645985044</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.38888244644547</v>
+        <v>24.24091351632388</v>
       </c>
       <c r="C20">
-        <v>19.52094395369035</v>
+        <v>20.12837620424348</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.7563562595035</v>
+        <v>17.19051993840332</v>
       </c>
       <c r="F20">
-        <v>36.13426089395536</v>
+        <v>35.07216922567029</v>
       </c>
       <c r="G20">
-        <v>30.93633060958715</v>
+        <v>27.95117657318507</v>
       </c>
       <c r="H20">
-        <v>2.189264544740897</v>
+        <v>2.14887564894104</v>
       </c>
       <c r="I20">
-        <v>3.508185169881201</v>
+        <v>3.445324020607041</v>
       </c>
       <c r="J20">
-        <v>9.868143099131965</v>
+        <v>9.698567837251627</v>
       </c>
       <c r="K20">
-        <v>13.40142003596763</v>
+        <v>12.30473023925833</v>
       </c>
       <c r="L20">
-        <v>5.426145331156344</v>
+        <v>10.82752643153592</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.621336800378891</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.403589887612648</v>
       </c>
       <c r="O20">
-        <v>21.45567412240302</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.89845855222906</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.82269819422602</v>
+        <v>25.61032401423391</v>
       </c>
       <c r="C21">
-        <v>20.67508501681968</v>
+        <v>21.15404641537063</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.70836232760884</v>
+        <v>18.42735501183276</v>
       </c>
       <c r="F21">
-        <v>38.00069079407529</v>
+        <v>36.41721133153293</v>
       </c>
       <c r="G21">
-        <v>32.63148312193919</v>
+        <v>30.53262248281214</v>
       </c>
       <c r="H21">
-        <v>2.538207706205408</v>
+        <v>2.474296565723646</v>
       </c>
       <c r="I21">
-        <v>3.771425835775414</v>
+        <v>3.657768177397347</v>
       </c>
       <c r="J21">
-        <v>10.05286999180472</v>
+        <v>8.738894635886139</v>
       </c>
       <c r="K21">
-        <v>13.43326239460845</v>
+        <v>11.84861807064523</v>
       </c>
       <c r="L21">
-        <v>5.47826283741229</v>
+        <v>10.42688667407081</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.500628299922969</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.443927307607921</v>
       </c>
       <c r="O21">
-        <v>22.75388395486362</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.33246368767128</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.74071614409618</v>
+        <v>26.48689403607121</v>
       </c>
       <c r="C22">
-        <v>21.370800793339</v>
+        <v>21.75298702934758</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.16632525021149</v>
+        <v>19.07673145235821</v>
       </c>
       <c r="F22">
-        <v>39.04311452224824</v>
+        <v>37.11320978057282</v>
       </c>
       <c r="G22">
-        <v>33.67957304761779</v>
+        <v>32.23620257000431</v>
       </c>
       <c r="H22">
-        <v>2.753370311046541</v>
+        <v>2.674479206616068</v>
       </c>
       <c r="I22">
-        <v>3.937024987352912</v>
+        <v>3.789622755796081</v>
       </c>
       <c r="J22">
-        <v>10.16982690272989</v>
+        <v>8.09955754872149</v>
       </c>
       <c r="K22">
-        <v>13.45741155944075</v>
+        <v>11.53239635466019</v>
       </c>
       <c r="L22">
-        <v>5.508329078782872</v>
+        <v>10.16257736134423</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.418342188230747</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.469022749037321</v>
       </c>
       <c r="O22">
-        <v>23.48531287229647</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>24.15099069686898</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.25904158669681</v>
+        <v>26.02982165754381</v>
       </c>
       <c r="C23">
-        <v>20.97360640145341</v>
+        <v>21.43458665682878</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.90575115842253</v>
+        <v>18.68793402140849</v>
       </c>
       <c r="F23">
-        <v>38.52564647293293</v>
+        <v>36.81774173565448</v>
       </c>
       <c r="G23">
-        <v>33.22755487996788</v>
+        <v>31.28811549496641</v>
       </c>
       <c r="H23">
-        <v>2.639382207123374</v>
+        <v>2.569095457945483</v>
       </c>
       <c r="I23">
-        <v>3.846398934677433</v>
+        <v>3.716779224136598</v>
       </c>
       <c r="J23">
-        <v>10.12932860691622</v>
+        <v>8.559224734950893</v>
       </c>
       <c r="K23">
-        <v>13.48844812136671</v>
+        <v>11.77064583120653</v>
       </c>
       <c r="L23">
-        <v>5.494068458512072</v>
+        <v>10.34402250436045</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.526846753141517</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.457366000856586</v>
       </c>
       <c r="O23">
-        <v>23.08185707314495</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.69347441024372</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.345771035028</v>
+        <v>24.1961384208101</v>
       </c>
       <c r="C24">
-        <v>19.46021581055081</v>
+        <v>20.08177923608978</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.91863028315328</v>
+        <v>17.36329591029793</v>
       </c>
       <c r="F24">
-        <v>36.4653504286243</v>
+        <v>35.38740768821521</v>
       </c>
       <c r="G24">
-        <v>31.33941781856898</v>
+        <v>28.29297580216035</v>
       </c>
       <c r="H24">
-        <v>2.199297485312119</v>
+        <v>2.158649550988999</v>
       </c>
       <c r="I24">
-        <v>3.502944750864804</v>
+        <v>3.438032568769227</v>
       </c>
       <c r="J24">
-        <v>9.951598984656339</v>
+        <v>9.774270674982787</v>
       </c>
       <c r="K24">
-        <v>13.55540559548835</v>
+        <v>12.42614041732209</v>
       </c>
       <c r="L24">
-        <v>5.435024962877068</v>
+        <v>10.90908741938</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.725912414711292</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.406850584039518</v>
       </c>
       <c r="O24">
-        <v>21.52108512372392</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.97070626259604</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.10513004566447</v>
+        <v>22.00910236728086</v>
       </c>
       <c r="C25">
-        <v>17.71004426495247</v>
+        <v>18.2124896688568</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.79473768204839</v>
+        <v>16.17290793199396</v>
       </c>
       <c r="F25">
-        <v>34.16152227371178</v>
+        <v>33.31409937490854</v>
       </c>
       <c r="G25">
-        <v>29.29777829286123</v>
+        <v>26.58827285063004</v>
       </c>
       <c r="H25">
-        <v>1.707121788131383</v>
+        <v>1.689379607774892</v>
       </c>
       <c r="I25">
-        <v>3.124092076042658</v>
+        <v>3.11511079294639</v>
       </c>
       <c r="J25">
-        <v>9.784436016112378</v>
+        <v>9.785904998821483</v>
       </c>
       <c r="K25">
-        <v>13.67175623687934</v>
+        <v>12.76354208432083</v>
       </c>
       <c r="L25">
-        <v>5.366334059453777</v>
+        <v>11.28969438686157</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.678506057426906</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.336668094568261</v>
       </c>
       <c r="O25">
-        <v>19.71473385725869</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>20.08662772070126</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
